--- a/capiq_data/in_process_data/IQ30655.xlsx
+++ b/capiq_data/in_process_data/IQ30655.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E07B8C-A29F-4C4C-A8C9-5CAA61EA06C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F4DA09-191F-4C54-8117-EB37686CA4BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"90c8a266-09c6-4737-827f-678576e2e3a3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a87f7d8d-1c29-41fe-8191-ee3ddc89c619"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40538</v>
+        <v>36884</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>221.85599999999999</v>
+        <v>30.969000000000001</v>
       </c>
       <c r="D2">
-        <v>870.71400000000006</v>
+        <v>384.09699999999998</v>
       </c>
       <c r="E2">
-        <v>689.4</v>
+        <v>424.20499999999998</v>
       </c>
       <c r="F2">
-        <v>407.43299999999999</v>
+        <v>170.03100000000001</v>
       </c>
       <c r="G2">
-        <v>2179.7449999999999</v>
+        <v>1227.693</v>
       </c>
       <c r="H2">
-        <v>2933.2170000000001</v>
+        <v>1471.26</v>
       </c>
       <c r="I2">
-        <v>168.75299999999999</v>
+        <v>123.143</v>
       </c>
       <c r="J2">
-        <v>1.37</v>
+        <v>312.483</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>689.87099999999998</v>
+        <v>419.65</v>
       </c>
       <c r="O2">
-        <v>848.43799999999999</v>
+        <v>785.03099999999995</v>
       </c>
       <c r="P2">
-        <v>20.637</v>
+        <v>335.32100000000003</v>
       </c>
       <c r="Q2">
-        <v>100.779</v>
+        <v>67.138999999999996</v>
       </c>
       <c r="R2">
-        <v>40538</v>
+        <v>36884</v>
       </c>
       <c r="S2">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2084.779</v>
+        <v>686.22900000000004</v>
       </c>
       <c r="U2">
-        <v>729.06</v>
+        <v>141.59200000000001</v>
       </c>
       <c r="V2">
-        <v>185.583</v>
+        <v>95.783000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-51.533000000000001</v>
+        <v>-36.610999999999997</v>
       </c>
       <c r="Y2">
-        <v>15.154</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1.1599999999999999</v>
+        <v>37.719000000000001</v>
       </c>
       <c r="AA2">
-        <v>221.85599999999999</v>
+        <v>30.969000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40629</v>
+        <v>36975</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>182.24</v>
+        <v>65.122</v>
       </c>
       <c r="D3">
-        <v>809.08699999999999</v>
+        <v>465.125</v>
       </c>
       <c r="E3">
-        <v>637.79499999999996</v>
+        <v>362.3</v>
       </c>
       <c r="F3">
-        <v>374.01900000000001</v>
+        <v>203.023</v>
       </c>
       <c r="G3">
-        <v>2372.7739999999999</v>
+        <v>1244.171</v>
       </c>
       <c r="H3">
-        <v>3148.4949999999999</v>
+        <v>1494.4449999999999</v>
       </c>
       <c r="I3">
-        <v>184.119</v>
+        <v>118.78</v>
       </c>
       <c r="J3">
-        <v>1.014</v>
+        <v>312.16300000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>667.39099999999996</v>
+        <v>326.12400000000002</v>
       </c>
       <c r="O3">
-        <v>825.33900000000006</v>
+        <v>691.18499999999995</v>
       </c>
       <c r="P3">
-        <v>20.190999999999999</v>
+        <v>332.96899999999999</v>
       </c>
       <c r="Q3">
-        <v>213.65</v>
+        <v>49.165999999999997</v>
       </c>
       <c r="R3">
-        <v>40629</v>
+        <v>36975</v>
       </c>
       <c r="S3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2323.1559999999999</v>
+        <v>803.26</v>
       </c>
       <c r="U3">
-        <v>942.71</v>
+        <v>190.75800000000001</v>
       </c>
       <c r="V3">
-        <v>241.59299999999999</v>
+        <v>64.123999999999995</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>14.724</v>
+        <v>10.47</v>
       </c>
       <c r="Y3">
-        <v>14.935</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-11.484999999999999</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="AA3">
-        <v>182.24</v>
+        <v>65.122</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40720</v>
+        <v>37066</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>125.928</v>
+        <v>58.28</v>
       </c>
       <c r="D4">
-        <v>752.01800000000003</v>
+        <v>365.536</v>
       </c>
       <c r="E4">
-        <v>590.56799999999998</v>
+        <v>248.91</v>
       </c>
       <c r="F4">
-        <v>338.45400000000001</v>
+        <v>151.74600000000001</v>
       </c>
       <c r="G4">
-        <v>3273.2649999999999</v>
+        <v>1576.606</v>
       </c>
       <c r="H4">
-        <v>4053.8670000000002</v>
+        <v>1871.7750000000001</v>
       </c>
       <c r="I4">
-        <v>163.541</v>
+        <v>56.567999999999998</v>
       </c>
       <c r="J4">
-        <v>738.48800000000006</v>
+        <v>659.71799999999996</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>680.75900000000001</v>
+        <v>499.68400000000003</v>
       </c>
       <c r="O4">
-        <v>1584.0219999999999</v>
+        <v>1159.402</v>
       </c>
       <c r="P4">
-        <v>743.27</v>
+        <v>668.68100000000004</v>
       </c>
       <c r="Q4">
-        <v>549.42200000000003</v>
+        <v>30.901</v>
       </c>
       <c r="R4">
-        <v>40720</v>
+        <v>37066</v>
       </c>
       <c r="S4">
-        <v>3700</v>
+        <v>3150</v>
       </c>
       <c r="T4">
-        <v>2469.8449999999998</v>
+        <v>712.37300000000005</v>
       </c>
       <c r="U4">
-        <v>1492.1320000000001</v>
+        <v>221.65899999999999</v>
       </c>
       <c r="V4">
-        <v>198.108</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>699.99400000000003</v>
+        <v>341.517</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-316.78899999999999</v>
+        <v>-396.79</v>
       </c>
       <c r="AA4">
-        <v>125.928</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40811</v>
+        <v>37157</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>71.837999999999994</v>
+        <v>-8.92</v>
       </c>
       <c r="D5">
-        <v>680.43600000000004</v>
+        <v>339.58</v>
       </c>
       <c r="E5">
-        <v>523.24</v>
+        <v>202.01400000000001</v>
       </c>
       <c r="F5">
-        <v>283.88299999999998</v>
+        <v>125.711</v>
       </c>
       <c r="G5">
-        <v>3134.6289999999999</v>
+        <v>1488.779</v>
       </c>
       <c r="H5">
-        <v>3900.9540000000002</v>
+        <v>1738.625</v>
       </c>
       <c r="I5">
-        <v>113.277</v>
+        <v>33.103000000000002</v>
       </c>
       <c r="J5">
-        <v>729.02099999999996</v>
+        <v>351.25900000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-1.5640000000000001</v>
+        <v>-0.60399999999999998</v>
       </c>
       <c r="N5">
-        <v>594.59400000000005</v>
+        <v>680.80499999999995</v>
       </c>
       <c r="O5">
-        <v>1511.0719999999999</v>
+        <v>1032.0640000000001</v>
       </c>
       <c r="P5">
-        <v>747.69799999999998</v>
+        <v>669.74800000000005</v>
       </c>
       <c r="Q5">
-        <v>-152.81399999999999</v>
+        <v>-126.66</v>
       </c>
       <c r="R5">
-        <v>40811</v>
+        <v>37157</v>
       </c>
       <c r="S5">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2389.8820000000001</v>
+        <v>706.56100000000004</v>
       </c>
       <c r="U5">
-        <v>1339.318</v>
+        <v>94.998999999999995</v>
       </c>
       <c r="V5">
-        <v>86.9</v>
+        <v>-2.8610000000000002</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-137.64400000000001</v>
+        <v>-1.0129999999999999</v>
       </c>
       <c r="Y5">
-        <v>14.231</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-85.259</v>
+        <v>-121.621</v>
       </c>
       <c r="AA5">
-        <v>71.837999999999994</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>33.212000000000003</v>
+        <v>-51.655000000000001</v>
       </c>
       <c r="D6">
-        <v>583.98099999999999</v>
+        <v>259.173</v>
       </c>
       <c r="E6">
-        <v>462.24299999999999</v>
+        <v>101.886</v>
       </c>
       <c r="F6">
-        <v>233.96700000000001</v>
+        <v>104.22799999999999</v>
       </c>
       <c r="G6">
-        <v>3212.8510000000001</v>
+        <v>1411.9</v>
       </c>
       <c r="H6">
-        <v>3978.1469999999999</v>
+        <v>1632.579</v>
       </c>
       <c r="I6">
-        <v>108.11799999999999</v>
+        <v>23.305</v>
       </c>
       <c r="J6">
-        <v>735.68799999999999</v>
+        <v>357.98399999999998</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>593.60500000000002</v>
+        <v>592.39200000000005</v>
       </c>
       <c r="O6">
-        <v>1515.403</v>
+        <v>950.37599999999998</v>
       </c>
       <c r="P6">
-        <v>751.89499999999998</v>
+        <v>670.33500000000004</v>
       </c>
       <c r="Q6">
-        <v>167.61</v>
+        <v>5.8789999999999996</v>
       </c>
       <c r="R6">
-        <v>40902</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2462.7440000000001</v>
+        <v>682.20299999999997</v>
       </c>
       <c r="U6">
-        <v>1506.9280000000001</v>
+        <v>100.878</v>
       </c>
       <c r="V6">
-        <v>169.01599999999999</v>
+        <v>24.974</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>30.302</v>
+        <v>-2.3540000000000001</v>
       </c>
       <c r="Y6">
-        <v>13.39</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-14.933999999999999</v>
+        <v>-14.734999999999999</v>
       </c>
       <c r="AA6">
-        <v>33.212000000000003</v>
+        <v>-51.655000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40993</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>45.603999999999999</v>
+        <v>1.569</v>
       </c>
       <c r="D7">
-        <v>658.96100000000001</v>
+        <v>164.10499999999999</v>
       </c>
       <c r="E7">
-        <v>471.77600000000001</v>
+        <v>125.95699999999999</v>
       </c>
       <c r="F7">
-        <v>267.14699999999999</v>
+        <v>54.987000000000002</v>
       </c>
       <c r="G7">
-        <v>3423.9090000000001</v>
+        <v>1404.4480000000001</v>
       </c>
       <c r="H7">
-        <v>4193.2629999999999</v>
+        <v>1623.43</v>
       </c>
       <c r="I7">
-        <v>179.44499999999999</v>
+        <v>32.000999999999998</v>
       </c>
       <c r="J7">
-        <v>742.44200000000001</v>
+        <v>354.60500000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>651.65499999999997</v>
+        <v>572.19500000000005</v>
       </c>
       <c r="O7">
-        <v>1584.1210000000001</v>
+        <v>926.8</v>
       </c>
       <c r="P7">
-        <v>757.92700000000002</v>
+        <v>666.72500000000002</v>
       </c>
       <c r="Q7">
-        <v>-96.661000000000001</v>
+        <v>29.207000000000001</v>
       </c>
       <c r="R7">
-        <v>40993</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2609.1419999999998</v>
+        <v>696.63</v>
       </c>
       <c r="U7">
-        <v>1410.2670000000001</v>
+        <v>130.08500000000001</v>
       </c>
       <c r="V7">
-        <v>146.39699999999999</v>
+        <v>-40.893000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>67.596000000000004</v>
+        <v>12.374000000000001</v>
       </c>
       <c r="Y7">
-        <v>12.984999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-282.22500000000002</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="AA7">
-        <v>45.603999999999999</v>
+        <v>1.569</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41084</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>18.068999999999999</v>
+        <v>-31.045000000000002</v>
       </c>
       <c r="D8">
-        <v>741.81399999999996</v>
+        <v>180.256</v>
       </c>
       <c r="E8">
-        <v>765.81799999999998</v>
+        <v>132.113</v>
       </c>
       <c r="F8">
-        <v>298.072</v>
+        <v>64.668999999999997</v>
       </c>
       <c r="G8">
-        <v>4415.1090000000004</v>
+        <v>1355.424</v>
       </c>
       <c r="H8">
-        <v>8004.652</v>
+        <v>1632.2909999999999</v>
       </c>
       <c r="I8">
-        <v>258.77800000000002</v>
+        <v>59.805999999999997</v>
       </c>
       <c r="J8">
-        <v>939.64300000000003</v>
+        <v>359.69099999999997</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1426.9280000000001</v>
+        <v>597.54399999999998</v>
       </c>
       <c r="O8">
-        <v>2872.8710000000001</v>
+        <v>957.23500000000001</v>
       </c>
       <c r="P8">
-        <v>1463.2650000000001</v>
+        <v>674.98199999999997</v>
       </c>
       <c r="Q8">
-        <v>154.48500000000001</v>
+        <v>42.345999999999997</v>
       </c>
       <c r="R8">
-        <v>41084</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>6600</v>
+        <v>2500</v>
       </c>
       <c r="T8">
-        <v>5131.7809999999999</v>
+        <v>675.05600000000004</v>
       </c>
       <c r="U8">
-        <v>1564.752</v>
+        <v>172.43100000000001</v>
       </c>
       <c r="V8">
-        <v>96.715000000000003</v>
+        <v>40.576999999999998</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-653.00099999999998</v>
+        <v>7.2969999999999997</v>
       </c>
       <c r="Y8">
-        <v>12.483000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>329.68900000000002</v>
+        <v>-2.5030000000000001</v>
       </c>
       <c r="AA8">
-        <v>18.068999999999999</v>
+        <v>-31.045000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41175</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>2.7679999999999998</v>
+        <v>-13.714</v>
       </c>
       <c r="D9">
-        <v>906.88800000000003</v>
+        <v>197.52</v>
       </c>
       <c r="E9">
-        <v>640.21699999999998</v>
+        <v>136.352</v>
       </c>
       <c r="F9">
-        <v>333.88600000000002</v>
+        <v>78.994</v>
       </c>
       <c r="G9">
-        <v>4169.4160000000002</v>
+        <v>988.31</v>
       </c>
       <c r="H9">
-        <v>7724.3459999999995</v>
+        <v>1264.723</v>
       </c>
       <c r="I9">
-        <v>148.12</v>
+        <v>38.893999999999998</v>
       </c>
       <c r="J9">
-        <v>1266.616</v>
+        <v>372.03300000000002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.66500000000000004</v>
+        <v>-309.88600000000002</v>
       </c>
       <c r="N9">
-        <v>854.25699999999995</v>
+        <v>274.32900000000001</v>
       </c>
       <c r="O9">
-        <v>2712.7</v>
+        <v>646.36199999999997</v>
       </c>
       <c r="P9">
-        <v>1280.3130000000001</v>
+        <v>377.44400000000002</v>
       </c>
       <c r="Q9">
-        <v>-153.286</v>
+        <v>-3.0009999999999999</v>
       </c>
       <c r="R9">
-        <v>41175</v>
+        <v>37528</v>
       </c>
       <c r="S9">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>5011.6459999999997</v>
+        <v>618.36099999999999</v>
       </c>
       <c r="U9">
-        <v>1411.4659999999999</v>
+        <v>169.43</v>
       </c>
       <c r="V9">
-        <v>249.262</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-344.86799999999999</v>
+        <v>-341.46100000000001</v>
       </c>
       <c r="Y9">
-        <v>12.176</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-16.638000000000002</v>
+        <v>330.19799999999998</v>
       </c>
       <c r="AA9">
-        <v>2.7679999999999998</v>
+        <v>-13.714</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41266</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>6.4080000000000004</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="D10">
-        <v>860.88599999999997</v>
+        <v>184.56899999999999</v>
       </c>
       <c r="E10">
-        <v>590.92499999999995</v>
+        <v>119.873</v>
       </c>
       <c r="F10">
-        <v>315.41399999999999</v>
+        <v>72.188999999999993</v>
       </c>
       <c r="G10">
-        <v>3846.4079999999999</v>
+        <v>961.78399999999999</v>
       </c>
       <c r="H10">
-        <v>7363.1639999999998</v>
+        <v>1234.2149999999999</v>
       </c>
       <c r="I10">
-        <v>156.23699999999999</v>
+        <v>22.931000000000001</v>
       </c>
       <c r="J10">
-        <v>1274.4590000000001</v>
+        <v>372.84800000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>825.48199999999997</v>
+        <v>238.61500000000001</v>
       </c>
       <c r="O10">
-        <v>2666.5740000000001</v>
+        <v>611.46299999999997</v>
       </c>
       <c r="P10">
-        <v>1288.193</v>
+        <v>378.13600000000002</v>
       </c>
       <c r="Q10">
-        <v>-221.27699999999999</v>
+        <v>-10.053000000000001</v>
       </c>
       <c r="R10">
-        <v>41266</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>4696.59</v>
+        <v>622.75199999999995</v>
       </c>
       <c r="U10">
-        <v>1190.1890000000001</v>
+        <v>159.37700000000001</v>
       </c>
       <c r="V10">
-        <v>193.226</v>
+        <v>12.026999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-348.54199999999997</v>
+        <v>1.5109999999999999</v>
       </c>
       <c r="Y10">
-        <v>12.27</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-23.25</v>
+        <v>-21.931000000000001</v>
       </c>
       <c r="AA10">
-        <v>6.4080000000000004</v>
+        <v>1.4790000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>18.995999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="D11">
-        <v>844.928</v>
+        <v>187.059</v>
       </c>
       <c r="E11">
-        <v>544.07000000000005</v>
+        <v>133.11000000000001</v>
       </c>
       <c r="F11">
-        <v>339.83199999999999</v>
+        <v>75.221000000000004</v>
       </c>
       <c r="G11">
-        <v>3669.9189999999999</v>
+        <v>871.99300000000005</v>
       </c>
       <c r="H11">
-        <v>7146.3019999999997</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="I11">
-        <v>173.28700000000001</v>
+        <v>30.622</v>
       </c>
       <c r="J11">
-        <v>1282.395</v>
+        <v>321.71800000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>801.01300000000003</v>
+        <v>244.52699999999999</v>
       </c>
       <c r="O11">
-        <v>2604.1019999999999</v>
+        <v>566.245</v>
       </c>
       <c r="P11">
-        <v>1296.154</v>
+        <v>326.87799999999999</v>
       </c>
       <c r="Q11">
-        <v>-171.08</v>
+        <v>-62.970999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>4542.2</v>
+        <v>629.61500000000001</v>
       </c>
       <c r="U11">
-        <v>1019.109</v>
+        <v>96.406000000000006</v>
       </c>
       <c r="V11">
-        <v>102.45699999999999</v>
+        <v>23.97</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-221.33</v>
+        <v>-45.823</v>
       </c>
       <c r="Y11">
-        <v>12.204000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-12.074999999999999</v>
+        <v>19.405999999999999</v>
       </c>
       <c r="AA11">
-        <v>18.995999999999999</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>85.706999999999994</v>
+        <v>3.6989999999999998</v>
       </c>
       <c r="D12">
-        <v>986.21400000000006</v>
+        <v>186.08600000000001</v>
       </c>
       <c r="E12">
-        <v>602.62400000000002</v>
+        <v>107.602</v>
       </c>
       <c r="F12">
-        <v>413.92700000000002</v>
+        <v>76.460999999999999</v>
       </c>
       <c r="G12">
-        <v>3793.8290000000002</v>
+        <v>872.77599999999995</v>
       </c>
       <c r="H12">
-        <v>7250.3149999999996</v>
+        <v>1198.2750000000001</v>
       </c>
       <c r="I12">
-        <v>200.25399999999999</v>
+        <v>35.518000000000001</v>
       </c>
       <c r="J12">
-        <v>964.32</v>
+        <v>332.209</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1404.4749999999999</v>
+        <v>216.982</v>
       </c>
       <c r="O12">
-        <v>2761.4430000000002</v>
+        <v>549.19100000000003</v>
       </c>
       <c r="P12">
-        <v>1490.8309999999999</v>
+        <v>337.22</v>
       </c>
       <c r="Q12">
-        <v>143.364</v>
+        <v>70.936999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
-        <v>6600</v>
+        <v>2100</v>
       </c>
       <c r="T12">
-        <v>4488.8720000000003</v>
+        <v>649.08399999999995</v>
       </c>
       <c r="U12">
-        <v>1162.473</v>
+        <v>167.34299999999999</v>
       </c>
       <c r="V12">
-        <v>174.988</v>
+        <v>31.698</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>26.95</v>
+        <v>12.426</v>
       </c>
       <c r="Y12">
-        <v>11.856</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-6.4420000000000002</v>
+        <v>27.817</v>
       </c>
       <c r="AA12">
-        <v>85.706999999999994</v>
+        <v>3.6989999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>85.506</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="D13">
-        <v>1015.059</v>
+        <v>183.738</v>
       </c>
       <c r="E13">
-        <v>713.524</v>
+        <v>113.97499999999999</v>
       </c>
       <c r="F13">
-        <v>431.858</v>
+        <v>78.268000000000001</v>
       </c>
       <c r="G13">
-        <v>3924.252</v>
+        <v>892.05200000000002</v>
       </c>
       <c r="H13">
-        <v>7290.3450000000003</v>
+        <v>1206.1020000000001</v>
       </c>
       <c r="I13">
-        <v>206.072</v>
+        <v>37.542000000000002</v>
       </c>
       <c r="J13">
-        <v>970.64200000000005</v>
+        <v>314.726</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-8.7999999999999995E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="N13">
-        <v>1402.89</v>
+        <v>203.68</v>
       </c>
       <c r="O13">
-        <v>2763.0729999999999</v>
+        <v>528.91899999999998</v>
       </c>
       <c r="P13">
-        <v>1497.953</v>
+        <v>319.726</v>
       </c>
       <c r="Q13">
-        <v>-6.2889999999999997</v>
+        <v>-80.683000000000007</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>4527.2719999999999</v>
+        <v>677.18299999999999</v>
       </c>
       <c r="U13">
-        <v>1156.184</v>
+        <v>86.66</v>
       </c>
       <c r="V13">
-        <v>51.924999999999997</v>
+        <v>-1.1890000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-76.644999999999996</v>
+        <v>21.550999999999998</v>
       </c>
       <c r="Y13">
-        <v>11.773</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>42.567</v>
+        <v>-99.179000000000002</v>
       </c>
       <c r="AA13">
-        <v>85.506</v>
+        <v>4.7859999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>148.99199999999999</v>
+        <v>6.391</v>
       </c>
       <c r="D14">
-        <v>1116.0609999999999</v>
+        <v>191.50800000000001</v>
       </c>
       <c r="E14">
-        <v>909.72</v>
+        <v>114.81100000000001</v>
       </c>
       <c r="F14">
-        <v>487.78899999999999</v>
+        <v>86.135999999999996</v>
       </c>
       <c r="G14">
-        <v>4249.0360000000001</v>
+        <v>942.47299999999996</v>
       </c>
       <c r="H14">
-        <v>7555.7979999999998</v>
+        <v>1247.904</v>
       </c>
       <c r="I14">
-        <v>252.58600000000001</v>
+        <v>39.814</v>
       </c>
       <c r="J14">
-        <v>977.05399999999997</v>
+        <v>310.31400000000002</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1522.5719999999999</v>
+        <v>209.09299999999999</v>
       </c>
       <c r="O14">
-        <v>2889.7080000000001</v>
+        <v>531.64800000000002</v>
       </c>
       <c r="P14">
-        <v>1504.9110000000001</v>
+        <v>315.31400000000002</v>
       </c>
       <c r="Q14">
-        <v>-23.629000000000001</v>
+        <v>42.551000000000002</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>6550</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>4666.09</v>
+        <v>716.25599999999997</v>
       </c>
       <c r="U14">
-        <v>1132.5550000000001</v>
+        <v>129.21100000000001</v>
       </c>
       <c r="V14">
-        <v>129.023</v>
+        <v>35.354999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-40.215000000000003</v>
+        <v>31.067</v>
       </c>
       <c r="Y14">
-        <v>11.375999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-88.754000000000005</v>
+        <v>-20.289000000000001</v>
       </c>
       <c r="AA14">
-        <v>148.99199999999999</v>
+        <v>6.391</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>164.39599999999999</v>
+        <v>19.155999999999999</v>
       </c>
       <c r="D15">
-        <v>1227.3920000000001</v>
+        <v>231.12799999999999</v>
       </c>
       <c r="E15">
-        <v>818.39</v>
+        <v>179.60599999999999</v>
       </c>
       <c r="F15">
-        <v>530.798</v>
+        <v>105.791</v>
       </c>
       <c r="G15">
-        <v>4447.3490000000002</v>
+        <v>1070.8620000000001</v>
       </c>
       <c r="H15">
-        <v>7707.3670000000002</v>
+        <v>1370.694</v>
       </c>
       <c r="I15">
-        <v>252.517</v>
+        <v>82.241</v>
       </c>
       <c r="J15">
-        <v>983.65599999999995</v>
+        <v>312.80700000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1542.7049999999999</v>
+        <v>300.06900000000002</v>
       </c>
       <c r="O15">
-        <v>2900.0749999999998</v>
+        <v>623.01300000000003</v>
       </c>
       <c r="P15">
-        <v>1512.345</v>
+        <v>316.55700000000002</v>
       </c>
       <c r="Q15">
-        <v>159.74600000000001</v>
+        <v>179.86799999999999</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4807.2920000000004</v>
+        <v>747.68100000000004</v>
       </c>
       <c r="U15">
-        <v>1292.3009999999999</v>
+        <v>309.07900000000001</v>
       </c>
       <c r="V15">
-        <v>290.20999999999998</v>
+        <v>40.579000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-34.502000000000002</v>
+        <v>11.289</v>
       </c>
       <c r="Y15">
-        <v>11.288</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-82.744</v>
+        <v>132.44900000000001</v>
       </c>
       <c r="AA15">
-        <v>164.39599999999999</v>
+        <v>19.155999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>233.39500000000001</v>
+        <v>52.655000000000001</v>
       </c>
       <c r="D16">
-        <v>1248.797</v>
+        <v>329.572</v>
       </c>
       <c r="E16">
-        <v>800.61599999999999</v>
+        <v>245.50800000000001</v>
       </c>
       <c r="F16">
-        <v>557.03599999999994</v>
+        <v>159.203</v>
       </c>
       <c r="G16">
-        <v>4783.6620000000003</v>
+        <v>896.38800000000003</v>
       </c>
       <c r="H16">
-        <v>7993.3059999999996</v>
+        <v>1198.626</v>
       </c>
       <c r="I16">
-        <v>223.51499999999999</v>
+        <v>93.394000000000005</v>
       </c>
       <c r="J16">
-        <v>806.899</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1582.001</v>
+        <v>376.60599999999999</v>
       </c>
       <c r="O16">
-        <v>2963.5709999999999</v>
+        <v>386.16</v>
       </c>
       <c r="P16">
-        <v>1335.4690000000001</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>160.376</v>
+        <v>-145.67599999999999</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
-        <v>6500</v>
+        <v>2200</v>
       </c>
       <c r="T16">
-        <v>5029.7349999999997</v>
+        <v>812.46600000000001</v>
       </c>
       <c r="U16">
-        <v>1452.6769999999999</v>
+        <v>163.40299999999999</v>
       </c>
       <c r="V16">
-        <v>245.89099999999999</v>
+        <v>82.403999999999996</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-11.372999999999999</v>
+        <v>-275.65499999999997</v>
       </c>
       <c r="Y16">
-        <v>10.303000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-155.035</v>
+        <v>53.948999999999998</v>
       </c>
       <c r="AA16">
-        <v>233.39500000000001</v>
+        <v>52.655000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>141.08099999999999</v>
+        <v>89.75</v>
       </c>
       <c r="D17">
-        <v>1152.3679999999999</v>
+        <v>419.54899999999998</v>
       </c>
       <c r="E17">
-        <v>864.40300000000002</v>
+        <v>333.39699999999999</v>
       </c>
       <c r="F17">
-        <v>505.53899999999999</v>
+        <v>214.761</v>
       </c>
       <c r="G17">
-        <v>4690.9759999999997</v>
+        <v>983.60400000000004</v>
       </c>
       <c r="H17">
-        <v>7893.8280000000004</v>
+        <v>1310.799</v>
       </c>
       <c r="I17">
-        <v>249.779</v>
+        <v>67.572999999999993</v>
       </c>
       <c r="J17">
-        <v>996.92399999999998</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.107</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1599.625</v>
+        <v>387.98599999999999</v>
       </c>
       <c r="O17">
-        <v>3003.1550000000002</v>
+        <v>396.12400000000002</v>
       </c>
       <c r="P17">
-        <v>1525.8</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-158.999</v>
+        <v>29.326000000000001</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38256</v>
       </c>
       <c r="S17">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4890.6729999999998</v>
+        <v>914.67499999999995</v>
       </c>
       <c r="U17">
-        <v>1293.6780000000001</v>
+        <v>192.72900000000001</v>
       </c>
       <c r="V17">
-        <v>141.161</v>
+        <v>40.381999999999998</v>
       </c>
       <c r="W17">
-        <v>-29.24</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-305.83699999999999</v>
+        <v>10.939</v>
       </c>
       <c r="Y17">
-        <v>9.7769999999999992</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>9.6449999999999996</v>
+        <v>-17.308</v>
       </c>
       <c r="AA17">
-        <v>141.08099999999999</v>
+        <v>89.75</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38347</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>176.94</v>
+        <v>83.614000000000004</v>
       </c>
       <c r="D18">
-        <v>1232.241</v>
+        <v>379.8</v>
       </c>
       <c r="E18">
-        <v>944.01400000000001</v>
+        <v>248.49799999999999</v>
       </c>
       <c r="F18">
-        <v>536.65700000000004</v>
+        <v>198.90199999999999</v>
       </c>
       <c r="G18">
-        <v>4914.8119999999999</v>
+        <v>1097.2249999999999</v>
       </c>
       <c r="H18">
-        <v>8110.6890000000003</v>
+        <v>1394.001</v>
       </c>
       <c r="I18">
-        <v>296.423</v>
+        <v>62.372999999999998</v>
       </c>
       <c r="J18">
-        <v>1003.68</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1708.6559999999999</v>
+        <v>356.584</v>
       </c>
       <c r="O18">
-        <v>3110.2539999999999</v>
+        <v>363.85199999999998</v>
       </c>
       <c r="P18">
-        <v>1532.348</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-312.40300000000002</v>
+        <v>133.44399999999999</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38347</v>
       </c>
       <c r="S18">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>5000.4350000000004</v>
+        <v>1030.1489999999999</v>
       </c>
       <c r="U18">
-        <v>981.27499999999998</v>
+        <v>326.173</v>
       </c>
       <c r="V18">
-        <v>161.239</v>
+        <v>150.36500000000001</v>
       </c>
       <c r="W18">
-        <v>-29.381</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-90.769000000000005</v>
+        <v>30.986000000000001</v>
       </c>
       <c r="Y18">
-        <v>8.7050000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-321.58999999999997</v>
+        <v>-41.411999999999999</v>
       </c>
       <c r="AA18">
-        <v>176.94</v>
+        <v>83.614000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38438</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>206.285</v>
+        <v>59.451000000000001</v>
       </c>
       <c r="D19">
-        <v>1393.3330000000001</v>
+        <v>349.33699999999999</v>
       </c>
       <c r="E19">
-        <v>1046.8</v>
+        <v>257.49599999999998</v>
       </c>
       <c r="F19">
-        <v>600.60199999999998</v>
+        <v>174.57</v>
       </c>
       <c r="G19">
-        <v>6060.9669999999996</v>
+        <v>1183.8800000000001</v>
       </c>
       <c r="H19">
-        <v>9238.5409999999993</v>
+        <v>1483.021</v>
       </c>
       <c r="I19">
-        <v>322.16000000000003</v>
+        <v>64.242000000000004</v>
       </c>
       <c r="J19">
-        <v>2004.271</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1734.9960000000001</v>
+        <v>375.35199999999998</v>
       </c>
       <c r="O19">
-        <v>4141.4859999999999</v>
+        <v>378.67</v>
       </c>
       <c r="P19">
-        <v>2532.3490000000002</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>654.36099999999999</v>
+        <v>110.289</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38438</v>
       </c>
       <c r="S19">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>5097.0550000000003</v>
+        <v>1104.3510000000001</v>
       </c>
       <c r="U19">
-        <v>1635.636</v>
+        <v>436.46199999999999</v>
       </c>
       <c r="V19">
-        <v>191.03700000000001</v>
+        <v>101.29900000000001</v>
       </c>
       <c r="W19">
-        <v>-28.724</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>862.63499999999999</v>
+        <v>-18.87</v>
       </c>
       <c r="Y19">
-        <v>7.3920000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-359.416</v>
+        <v>30.975999999999999</v>
       </c>
       <c r="AA19">
-        <v>206.285</v>
+        <v>59.451000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38529</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>131.27099999999999</v>
+        <v>66.525999999999996</v>
       </c>
       <c r="D20">
-        <v>1481.37</v>
+        <v>353.767</v>
       </c>
       <c r="E20">
-        <v>1093.5820000000001</v>
+        <v>232.005</v>
       </c>
       <c r="F20">
-        <v>651.35900000000004</v>
+        <v>175.85900000000001</v>
       </c>
       <c r="G20">
-        <v>6270.8490000000002</v>
+        <v>1244.836</v>
       </c>
       <c r="H20">
-        <v>9364.6479999999992</v>
+        <v>1448.8150000000001</v>
       </c>
       <c r="I20">
-        <v>300.20299999999997</v>
+        <v>60.218000000000004</v>
       </c>
       <c r="J20">
-        <v>993.96</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2631.3609999999999</v>
+        <v>379.13299999999998</v>
       </c>
       <c r="O20">
-        <v>4261.5039999999999</v>
+        <v>381.91899999999998</v>
       </c>
       <c r="P20">
-        <v>2361.0320000000002</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-134.09700000000001</v>
+        <v>45.787999999999997</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38529</v>
       </c>
       <c r="S20">
-        <v>7300</v>
+        <v>2200</v>
       </c>
       <c r="T20">
-        <v>5103.1440000000002</v>
+        <v>1066.896</v>
       </c>
       <c r="U20">
-        <v>1501.539</v>
+        <v>482.25</v>
       </c>
       <c r="V20">
-        <v>292.06599999999997</v>
+        <v>133.88399999999999</v>
       </c>
       <c r="W20">
-        <v>-28.713999999999999</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-87.557000000000002</v>
+        <v>-75.373999999999995</v>
       </c>
       <c r="Y20">
-        <v>7.4219999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-280.87900000000002</v>
+        <v>-35.564999999999998</v>
       </c>
       <c r="AA20">
-        <v>131.27099999999999</v>
+        <v>66.525999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38620</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>288.67899999999997</v>
+        <v>49.491</v>
       </c>
       <c r="D21">
-        <v>1600.0429999999999</v>
+        <v>320.90699999999998</v>
       </c>
       <c r="E21">
-        <v>1088.942</v>
+        <v>220.95500000000001</v>
       </c>
       <c r="F21">
-        <v>722.36300000000006</v>
+        <v>156.07900000000001</v>
       </c>
       <c r="G21">
-        <v>6515.9809999999998</v>
+        <v>1222.9359999999999</v>
       </c>
       <c r="H21">
-        <v>9594.4310000000005</v>
+        <v>1424.674</v>
       </c>
       <c r="I21">
-        <v>254.33099999999999</v>
+        <v>56.898000000000003</v>
       </c>
       <c r="J21">
-        <v>1400.355</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-9.6000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2281.9409999999998</v>
+        <v>364.649</v>
       </c>
       <c r="O21">
-        <v>4236.2759999999998</v>
+        <v>366.01299999999998</v>
       </c>
       <c r="P21">
-        <v>2370.0070000000001</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>242.786</v>
+        <v>32.567999999999998</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38620</v>
       </c>
       <c r="S21">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>5358.1549999999997</v>
+        <v>1058.6610000000001</v>
       </c>
       <c r="U21">
-        <v>1744.325</v>
+        <v>514.81799999999998</v>
       </c>
       <c r="V21">
-        <v>448.99700000000001</v>
+        <v>47.381</v>
       </c>
       <c r="W21">
-        <v>-47.658999999999999</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-123.246</v>
+        <v>-61.378999999999998</v>
       </c>
       <c r="Y21">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-28.202999999999999</v>
+        <v>51.597999999999999</v>
       </c>
       <c r="AA21">
-        <v>288.67899999999997</v>
+        <v>49.491</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42365</v>
+        <v>38711</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>222.98</v>
+        <v>77.778000000000006</v>
       </c>
       <c r="D22">
-        <v>1425.5340000000001</v>
+        <v>358.245</v>
       </c>
       <c r="E22">
-        <v>1089.8499999999999</v>
+        <v>279.185</v>
       </c>
       <c r="F22">
-        <v>626.51</v>
+        <v>177.51</v>
       </c>
       <c r="G22">
-        <v>6670.1970000000001</v>
+        <v>1380.4929999999999</v>
       </c>
       <c r="H22">
-        <v>9750.4210000000003</v>
+        <v>1582.271</v>
       </c>
       <c r="I22">
-        <v>230.97399999999999</v>
+        <v>73.363</v>
       </c>
       <c r="J22">
-        <v>1404.44</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2222.98</v>
+        <v>439.19099999999997</v>
       </c>
       <c r="O22">
-        <v>4198.13</v>
+        <v>440.47</v>
       </c>
       <c r="P22">
-        <v>2378.38</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>223.548</v>
+        <v>118.964</v>
       </c>
       <c r="R22">
-        <v>42365</v>
+        <v>38711</v>
       </c>
       <c r="S22">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5552.2910000000002</v>
+        <v>1141.8009999999999</v>
       </c>
       <c r="U22">
-        <v>1967.873</v>
+        <v>633.78200000000004</v>
       </c>
       <c r="V22">
-        <v>294.54500000000002</v>
+        <v>111.405</v>
       </c>
       <c r="W22">
-        <v>-47.896000000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-85.736000000000004</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Y22">
-        <v>0.24299999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>39.201999999999998</v>
+        <v>14.191000000000001</v>
       </c>
       <c r="AA22">
-        <v>222.98</v>
+        <v>77.778000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42456</v>
+        <v>38802</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>143.45099999999999</v>
+        <v>86.337000000000003</v>
       </c>
       <c r="D23">
-        <v>1314.0550000000001</v>
+        <v>437.423</v>
       </c>
       <c r="E23">
-        <v>1236.617</v>
+        <v>319.14999999999998</v>
       </c>
       <c r="F23">
-        <v>571.26499999999999</v>
+        <v>219.654</v>
       </c>
       <c r="G23">
-        <v>6941.5649999999996</v>
+        <v>1539.768</v>
       </c>
       <c r="H23">
-        <v>10024.262000000001</v>
+        <v>1738.825</v>
       </c>
       <c r="I23">
-        <v>373.16399999999999</v>
+        <v>107.142</v>
       </c>
       <c r="J23">
-        <v>1411.2619999999999</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2342.1860000000001</v>
+        <v>507.30900000000003</v>
       </c>
       <c r="O23">
-        <v>4331.9229999999998</v>
+        <v>508.91399999999999</v>
       </c>
       <c r="P23">
-        <v>2390.4670000000001</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>264.14800000000002</v>
+        <v>124.063</v>
       </c>
       <c r="R23">
-        <v>42456</v>
+        <v>38802</v>
       </c>
       <c r="S23">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>5692.3389999999999</v>
+        <v>1229.9110000000001</v>
       </c>
       <c r="U23">
-        <v>2232.0210000000002</v>
+        <v>757.84500000000003</v>
       </c>
       <c r="V23">
-        <v>182.911</v>
+        <v>109.63500000000001</v>
       </c>
       <c r="W23">
-        <v>-47.539000000000001</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-57.16</v>
+        <v>-7.5519999999999996</v>
       </c>
       <c r="Y23">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>181.93799999999999</v>
+        <v>26.702999999999999</v>
       </c>
       <c r="AA23">
-        <v>143.45099999999999</v>
+        <v>86.337000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42547</v>
+        <v>38893</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>258.93900000000002</v>
+        <v>121.604</v>
       </c>
       <c r="D24">
-        <v>1546.261</v>
+        <v>525.596</v>
       </c>
       <c r="E24">
-        <v>1262.145</v>
+        <v>407.34699999999998</v>
       </c>
       <c r="F24">
-        <v>698.78399999999999</v>
+        <v>273.76900000000001</v>
       </c>
       <c r="G24">
-        <v>9213.15</v>
+        <v>1706.3689999999999</v>
       </c>
       <c r="H24">
-        <v>12264.315000000001</v>
+        <v>2327.3820000000001</v>
       </c>
       <c r="I24">
-        <v>348.19900000000001</v>
+        <v>108.504</v>
       </c>
       <c r="J24">
-        <v>3377.924</v>
+        <v>350</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2418.0410000000002</v>
+        <v>567.649</v>
       </c>
       <c r="O24">
-        <v>6369.7979999999998</v>
+        <v>918.61800000000005</v>
       </c>
       <c r="P24">
-        <v>4325.8620000000001</v>
+        <v>350</v>
       </c>
       <c r="Q24">
-        <v>2807.3009999999999</v>
+        <v>152.97</v>
       </c>
       <c r="R24">
-        <v>42547</v>
+        <v>38893</v>
       </c>
       <c r="S24">
-        <v>7500</v>
+        <v>2430</v>
       </c>
       <c r="T24">
-        <v>5894.5169999999998</v>
+        <v>1408.7639999999999</v>
       </c>
       <c r="U24">
-        <v>5039.3220000000001</v>
+        <v>910.81500000000005</v>
       </c>
       <c r="V24">
-        <v>423.82400000000001</v>
+        <v>98.960999999999999</v>
       </c>
       <c r="W24">
-        <v>-47.308</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1861.8869999999999</v>
+        <v>372.91199999999998</v>
       </c>
       <c r="Y24">
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>605.89099999999996</v>
+        <v>90.296000000000006</v>
       </c>
       <c r="AA24">
-        <v>258.93900000000002</v>
+        <v>121.604</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42638</v>
+        <v>38984</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>263.83499999999998</v>
+        <v>183.518</v>
       </c>
       <c r="D25">
-        <v>1632.4190000000001</v>
+        <v>604.38699999999994</v>
       </c>
       <c r="E25">
-        <v>1290.317</v>
+        <v>379.86900000000003</v>
       </c>
       <c r="F25">
-        <v>716.197</v>
+        <v>313.16399999999999</v>
       </c>
       <c r="G25">
-        <v>9599.0020000000004</v>
+        <v>1920.6</v>
       </c>
       <c r="H25">
-        <v>12636.361999999999</v>
+        <v>2534.3609999999999</v>
       </c>
       <c r="I25">
-        <v>349.74299999999999</v>
+        <v>125.55</v>
       </c>
       <c r="J25">
-        <v>3377.9940000000001</v>
+        <v>350</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-0.371</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="N25">
-        <v>2486.252</v>
+        <v>584.24400000000003</v>
       </c>
       <c r="O25">
-        <v>6451.4790000000003</v>
+        <v>935.16800000000001</v>
       </c>
       <c r="P25">
-        <v>4331.1779999999999</v>
+        <v>350</v>
       </c>
       <c r="Q25">
-        <v>822.37900000000002</v>
+        <v>120.533</v>
       </c>
       <c r="R25">
-        <v>42638</v>
+        <v>38984</v>
       </c>
       <c r="S25">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>6184.8829999999998</v>
+        <v>1599.193</v>
       </c>
       <c r="U25">
-        <v>5861.701</v>
+        <v>1031.348</v>
       </c>
       <c r="V25">
-        <v>473.22399999999999</v>
+        <v>216.62700000000001</v>
       </c>
       <c r="W25">
-        <v>-48.052</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-29.507999999999999</v>
+        <v>7.9009999999999998</v>
       </c>
       <c r="Y25">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>431.75</v>
+        <v>-90.923000000000002</v>
       </c>
       <c r="AA25">
-        <v>263.83499999999998</v>
+        <v>183.518</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42729</v>
+        <v>39075</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>332.791</v>
+        <v>167.32599999999999</v>
       </c>
       <c r="D26">
-        <v>1882.299</v>
+        <v>633.4</v>
       </c>
       <c r="E26">
-        <v>1426.307</v>
+        <v>456.42700000000002</v>
       </c>
       <c r="F26">
-        <v>846.79700000000003</v>
+        <v>322.916</v>
       </c>
       <c r="G26">
-        <v>8503.8739999999998</v>
+        <v>1956.6559999999999</v>
       </c>
       <c r="H26">
-        <v>11521.058999999999</v>
+        <v>2679.7060000000001</v>
       </c>
       <c r="I26">
-        <v>445.113</v>
+        <v>111.429</v>
       </c>
       <c r="J26">
-        <v>1785.6990000000001</v>
+        <v>300</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2658.018</v>
+        <v>638.36300000000006</v>
       </c>
       <c r="O26">
-        <v>5125.3630000000003</v>
+        <v>939.19600000000003</v>
       </c>
       <c r="P26">
-        <v>2743.76</v>
+        <v>300</v>
       </c>
       <c r="Q26">
-        <v>-3357.741</v>
+        <v>-402.23099999999999</v>
       </c>
       <c r="R26">
-        <v>42729</v>
+        <v>39075</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>6395.6959999999999</v>
+        <v>1740.51</v>
       </c>
       <c r="U26">
-        <v>2503.96</v>
+        <v>629.11699999999996</v>
       </c>
       <c r="V26">
-        <v>404.09800000000001</v>
+        <v>162.03800000000001</v>
       </c>
       <c r="W26">
-        <v>-48.396999999999998</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-1729.258</v>
+        <v>-88.564999999999998</v>
       </c>
       <c r="Y26">
-        <v>0.16600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1990.9280000000001</v>
+        <v>-340.774</v>
       </c>
       <c r="AA26">
-        <v>332.791</v>
+        <v>167.32599999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42820</v>
+        <v>39166</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>574.71299999999997</v>
+        <v>164.74100000000001</v>
       </c>
       <c r="D27">
-        <v>2153.9949999999999</v>
+        <v>650.27</v>
       </c>
       <c r="E27">
-        <v>1636.09</v>
+        <v>461.36500000000001</v>
       </c>
       <c r="F27">
-        <v>971.404</v>
+        <v>326.245</v>
       </c>
       <c r="G27">
-        <v>8875.9480000000003</v>
+        <v>1944.3679999999999</v>
       </c>
       <c r="H27">
-        <v>11875.186</v>
+        <v>2609.87</v>
       </c>
       <c r="I27">
-        <v>473.41500000000002</v>
+        <v>142.81399999999999</v>
       </c>
       <c r="J27">
-        <v>1789.3</v>
+        <v>250</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2756.739</v>
+        <v>642.87099999999998</v>
       </c>
       <c r="O27">
-        <v>5128.9319999999998</v>
+        <v>893.69200000000001</v>
       </c>
       <c r="P27">
-        <v>2700.6990000000001</v>
+        <v>250</v>
       </c>
       <c r="Q27">
-        <v>-375.39</v>
+        <v>-134.31</v>
       </c>
       <c r="R27">
-        <v>42820</v>
+        <v>39166</v>
       </c>
       <c r="S27">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>6746.2539999999999</v>
+        <v>1716.1780000000001</v>
       </c>
       <c r="U27">
-        <v>2128.5700000000002</v>
+        <v>494.80700000000002</v>
       </c>
       <c r="V27">
-        <v>422.68799999999999</v>
+        <v>151.40100000000001</v>
       </c>
       <c r="W27">
-        <v>-73.337000000000003</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-333.81900000000002</v>
+        <v>-258.67899999999997</v>
       </c>
       <c r="Y27">
-        <v>6.1109999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-418.56599999999997</v>
+        <v>-63.149000000000001</v>
       </c>
       <c r="AA27">
-        <v>574.71299999999997</v>
+        <v>164.74100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42911</v>
+        <v>39257</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>526.42399999999998</v>
+        <v>170.23099999999999</v>
       </c>
       <c r="D28">
-        <v>2344.9070000000002</v>
+        <v>678.51900000000001</v>
       </c>
       <c r="E28">
-        <v>1673.3979999999999</v>
+        <v>410.01299999999998</v>
       </c>
       <c r="F28">
-        <v>1068.961</v>
+        <v>342.72899999999998</v>
       </c>
       <c r="G28">
-        <v>9142.4979999999996</v>
+        <v>1416.3610000000001</v>
       </c>
       <c r="H28">
-        <v>12122.764999999999</v>
+        <v>2101.605</v>
       </c>
       <c r="I28">
-        <v>464.64299999999997</v>
+        <v>117.617</v>
       </c>
       <c r="J28">
-        <v>1786.1</v>
+        <v>250</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2950.1149999999998</v>
+        <v>672.798</v>
       </c>
       <c r="O28">
-        <v>5305.3140000000003</v>
+        <v>925.28499999999997</v>
       </c>
       <c r="P28">
-        <v>2700.6819999999998</v>
+        <v>250</v>
       </c>
       <c r="Q28">
-        <v>248.964</v>
+        <v>79.16</v>
       </c>
       <c r="R28">
-        <v>42911</v>
+        <v>39257</v>
       </c>
       <c r="S28">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>6817.451</v>
+        <v>1176.32</v>
       </c>
       <c r="U28">
-        <v>2377.5340000000001</v>
+        <v>573.96699999999998</v>
       </c>
       <c r="V28">
-        <v>729.27200000000005</v>
+        <v>293.49299999999999</v>
       </c>
       <c r="W28">
-        <v>-73.709000000000003</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-539.80899999999997</v>
+        <v>-738.99199999999996</v>
       </c>
       <c r="Y28">
-        <v>6.1429999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>93.858000000000004</v>
+        <v>543.07600000000002</v>
       </c>
       <c r="AA28">
-        <v>526.42399999999998</v>
+        <v>170.23099999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43002</v>
+        <v>39348</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>590.69000000000005</v>
+        <v>148.58799999999999</v>
       </c>
       <c r="D29">
-        <v>2478.14</v>
+        <v>684.62099999999998</v>
       </c>
       <c r="E29">
-        <v>1530.7619999999999</v>
+        <v>339.15899999999999</v>
       </c>
       <c r="F29">
-        <v>1149.3430000000001</v>
+        <v>343.887</v>
       </c>
       <c r="G29">
-        <v>9228.7800000000007</v>
+        <v>1578.704</v>
       </c>
       <c r="H29">
-        <v>12398.626</v>
+        <v>2289.1179999999999</v>
       </c>
       <c r="I29">
-        <v>471.80500000000001</v>
+        <v>107.426</v>
       </c>
       <c r="J29">
-        <v>1789.86</v>
+        <v>250</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,84 +3130,84 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-301.72699999999998</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="N29">
-        <v>2788.6309999999999</v>
+        <v>574.35400000000004</v>
       </c>
       <c r="O29">
-        <v>5127.4480000000003</v>
+        <v>898.11300000000006</v>
       </c>
       <c r="P29">
-        <v>2446.4609999999998</v>
+        <v>250</v>
       </c>
       <c r="Q29">
-        <v>28.768000000000001</v>
+        <v>219.20099999999999</v>
       </c>
       <c r="R29">
-        <v>43002</v>
+        <v>39348</v>
       </c>
       <c r="S29">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>7271.1779999999999</v>
+        <v>1391.0050000000001</v>
       </c>
       <c r="U29">
-        <v>2406.462</v>
+        <v>793.16800000000001</v>
       </c>
       <c r="V29">
-        <v>858.30600000000004</v>
+        <v>222.447</v>
       </c>
       <c r="W29">
-        <v>-72.738</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-528.80399999999997</v>
+        <v>25.646999999999998</v>
       </c>
       <c r="Y29">
-        <v>16.693999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-117.774</v>
+        <v>-15.984999999999999</v>
       </c>
       <c r="AA29">
-        <v>590.69000000000005</v>
+        <v>148.58799999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43093</v>
+        <v>39439</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-9.9550000000000001</v>
+        <v>115.059</v>
       </c>
       <c r="D30">
-        <v>2580.8150000000001</v>
+        <v>610.32000000000005</v>
       </c>
       <c r="E30">
-        <v>2279.0439999999999</v>
+        <v>441.99299999999999</v>
       </c>
       <c r="F30">
-        <v>1205.567</v>
+        <v>307.661</v>
       </c>
       <c r="G30">
-        <v>9666.1219999999994</v>
+        <v>1676.192</v>
       </c>
       <c r="H30">
-        <v>12912.264999999999</v>
+        <v>2448.1640000000002</v>
       </c>
       <c r="I30">
-        <v>421.78800000000001</v>
+        <v>75.131</v>
       </c>
       <c r="J30">
-        <v>1785.498</v>
+        <v>250</v>
       </c>
       <c r="K30">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3911.6950000000002</v>
+        <v>569.49300000000005</v>
       </c>
       <c r="O30">
-        <v>6769.134</v>
+        <v>899.07299999999998</v>
       </c>
       <c r="P30">
-        <v>3206.1379999999999</v>
+        <v>250</v>
       </c>
       <c r="Q30">
-        <v>-661.35</v>
+        <v>-17.113</v>
       </c>
       <c r="R30">
-        <v>43093</v>
+        <v>39439</v>
       </c>
       <c r="S30">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>6143.1310000000003</v>
+        <v>1549.0909999999999</v>
       </c>
       <c r="U30">
-        <v>1745.173</v>
+        <v>776.05499999999995</v>
       </c>
       <c r="V30">
-        <v>28.704000000000001</v>
+        <v>21.44</v>
       </c>
       <c r="W30">
-        <v>-73.126999999999995</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-396.02199999999999</v>
+        <v>19.074000000000002</v>
       </c>
       <c r="Y30">
-        <v>18.98</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-205.70099999999999</v>
+        <v>-20.46</v>
       </c>
       <c r="AA30">
-        <v>-9.9550000000000001</v>
+        <v>115.059</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43184</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>778.8</v>
+        <v>103.524</v>
       </c>
       <c r="D31">
-        <v>2892.1149999999998</v>
+        <v>613.80999999999995</v>
       </c>
       <c r="E31">
-        <v>2082.6320000000001</v>
+        <v>599.71900000000005</v>
       </c>
       <c r="F31">
-        <v>1330.7139999999999</v>
+        <v>287.20800000000003</v>
       </c>
       <c r="G31">
-        <v>10425.797</v>
+        <v>1890.683</v>
       </c>
       <c r="H31">
-        <v>13663.499</v>
+        <v>2794.2640000000001</v>
       </c>
       <c r="I31">
-        <v>630.91200000000003</v>
+        <v>121.45399999999999</v>
       </c>
       <c r="J31">
-        <v>1787.799</v>
+        <v>266.423</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>3948.42</v>
+        <v>725.04200000000003</v>
       </c>
       <c r="O31">
-        <v>6860.4440000000004</v>
+        <v>1120.933</v>
       </c>
       <c r="P31">
-        <v>3230.922</v>
+        <v>305.86</v>
       </c>
       <c r="Q31">
-        <v>2954.4250000000002</v>
+        <v>-223.702</v>
       </c>
       <c r="R31">
-        <v>43184</v>
+        <v>39537</v>
       </c>
       <c r="S31">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>6803.0550000000003</v>
+        <v>1673.3309999999999</v>
       </c>
       <c r="U31">
-        <v>4698.9949999999999</v>
+        <v>552.35299999999995</v>
       </c>
       <c r="V31">
-        <v>1050.3789999999999</v>
+        <v>145.98500000000001</v>
       </c>
       <c r="W31">
-        <v>-79.739000000000004</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-186.46199999999999</v>
+        <v>-1.252</v>
       </c>
       <c r="Y31">
-        <v>19.858000000000001</v>
+        <v>20.907</v>
       </c>
       <c r="Z31">
-        <v>2134.886</v>
+        <v>83.200999999999993</v>
       </c>
       <c r="AA31">
-        <v>778.8</v>
+        <v>103.524</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43275</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1021.146</v>
+        <v>72.177999999999997</v>
       </c>
       <c r="D32">
-        <v>3125.9279999999999</v>
+        <v>566.16</v>
       </c>
       <c r="E32">
-        <v>2176.9360000000001</v>
+        <v>412.35599999999999</v>
       </c>
       <c r="F32">
-        <v>1479.4079999999999</v>
+        <v>247.26</v>
       </c>
       <c r="G32">
-        <v>9149.9110000000001</v>
+        <v>1917.7070000000001</v>
       </c>
       <c r="H32">
-        <v>12479.477999999999</v>
+        <v>2806.7550000000001</v>
       </c>
       <c r="I32">
-        <v>510.983</v>
+        <v>89.158000000000001</v>
       </c>
       <c r="J32">
-        <v>1783.9359999999999</v>
+        <v>276.50299999999999</v>
       </c>
       <c r="K32">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,161 +3382,161 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3150.308</v>
+        <v>637.67899999999997</v>
       </c>
       <c r="O32">
-        <v>5977.6270000000004</v>
+        <v>1022.811</v>
       </c>
       <c r="P32">
-        <v>2447.7800000000002</v>
+        <v>306.92899999999997</v>
       </c>
       <c r="Q32">
-        <v>-187.024</v>
+        <v>180.184</v>
       </c>
       <c r="R32">
-        <v>43275</v>
+        <v>39628</v>
       </c>
       <c r="S32">
-        <v>10900</v>
+        <v>3800</v>
       </c>
       <c r="T32">
-        <v>6501.8509999999997</v>
+        <v>1783.944</v>
       </c>
       <c r="U32">
-        <v>4512.2569999999996</v>
+        <v>732.53700000000003</v>
       </c>
       <c r="V32">
-        <v>718.35799999999995</v>
+        <v>200.447</v>
       </c>
       <c r="W32">
-        <v>-82.004999999999995</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-2160.7689999999998</v>
+        <v>22.341000000000001</v>
       </c>
       <c r="Y32">
-        <v>46.345999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1341.4749999999999</v>
+        <v>-32.494</v>
       </c>
       <c r="AA32">
-        <v>1021.146</v>
+        <v>72.177999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43366</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>533.36</v>
+        <v>8.8729999999999993</v>
       </c>
       <c r="D33">
-        <v>2330.6909999999998</v>
+        <v>440.36099999999999</v>
       </c>
       <c r="E33">
-        <v>1846.845</v>
+        <v>311.63299999999998</v>
       </c>
       <c r="F33">
-        <v>1058.1980000000001</v>
+        <v>186.15799999999999</v>
       </c>
       <c r="G33">
-        <v>7515.8729999999996</v>
+        <v>1808.252</v>
       </c>
       <c r="H33">
-        <v>10957.576999999999</v>
+        <v>2684.57</v>
       </c>
       <c r="I33">
-        <v>384.40300000000002</v>
+        <v>62.231999999999999</v>
       </c>
       <c r="J33">
-        <v>1787.6849999999999</v>
+        <v>250.703</v>
       </c>
       <c r="K33">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-8.5999999999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>-79.831000000000003</v>
+        <v>-2.39</v>
       </c>
       <c r="N33">
-        <v>2824.9650000000001</v>
+        <v>533.72199999999998</v>
       </c>
       <c r="O33">
-        <v>5634.7520000000004</v>
+        <v>919.03700000000003</v>
       </c>
       <c r="P33">
-        <v>2384.5859999999998</v>
+        <v>299.375</v>
       </c>
       <c r="Q33">
-        <v>-1944.549</v>
+        <v>12.895</v>
       </c>
       <c r="R33">
-        <v>43366</v>
+        <v>39719</v>
       </c>
       <c r="S33">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>5322.8249999999998</v>
+        <v>1765.5329999999999</v>
       </c>
       <c r="U33">
-        <v>2568.085</v>
+        <v>745.43200000000002</v>
       </c>
       <c r="V33">
-        <v>720.28599999999994</v>
+        <v>43.131999999999998</v>
       </c>
       <c r="W33">
-        <v>-174.37200000000001</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-1990.193</v>
+        <v>9.9849999999999994</v>
       </c>
       <c r="Y33">
-        <v>46.531999999999996</v>
+        <v>18.553000000000001</v>
       </c>
       <c r="Z33">
-        <v>-612.58299999999997</v>
+        <v>6.98</v>
       </c>
       <c r="AA33">
-        <v>533.36</v>
+        <v>8.8729999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43457</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>568.85500000000002</v>
+        <v>-24.172000000000001</v>
       </c>
       <c r="D34">
-        <v>2522.6729999999998</v>
+        <v>283.40899999999999</v>
       </c>
       <c r="E34">
-        <v>1868.8420000000001</v>
+        <v>290.565</v>
       </c>
       <c r="F34">
-        <v>1145.0329999999999</v>
+        <v>109.08</v>
       </c>
       <c r="G34">
-        <v>7355.8450000000003</v>
+        <v>1660.4860000000001</v>
       </c>
       <c r="H34">
-        <v>10768.458000000001</v>
+        <v>2538.4209999999998</v>
       </c>
       <c r="I34">
-        <v>343.94200000000001</v>
+        <v>39.808</v>
       </c>
       <c r="J34">
-        <v>1784.4010000000001</v>
+        <v>238.58699999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2166.837</v>
+        <v>446.41199999999998</v>
       </c>
       <c r="O34">
-        <v>4984.0950000000003</v>
+        <v>817.22900000000004</v>
       </c>
       <c r="P34">
-        <v>2017.337</v>
+        <v>287.03399999999999</v>
       </c>
       <c r="Q34">
-        <v>791.07600000000002</v>
+        <v>-92.519000000000005</v>
       </c>
       <c r="R34">
-        <v>43457</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>10950</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>5784.3630000000003</v>
+        <v>1721.192</v>
       </c>
       <c r="U34">
-        <v>3359.7930000000001</v>
+        <v>652.91300000000001</v>
       </c>
       <c r="V34">
-        <v>642.41899999999998</v>
+        <v>-38.988999999999997</v>
       </c>
       <c r="W34">
-        <v>-167.90700000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-515.553</v>
+        <v>-39.451000000000001</v>
       </c>
       <c r="Y34">
-        <v>45.834000000000003</v>
+        <v>18.547999999999998</v>
       </c>
       <c r="Z34">
-        <v>773.22299999999996</v>
+        <v>39.767000000000003</v>
       </c>
       <c r="AA34">
-        <v>568.85500000000002</v>
+        <v>-24.172000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>547.39</v>
+        <v>-198.35900000000001</v>
       </c>
       <c r="D35">
-        <v>2439.0479999999998</v>
+        <v>174.41200000000001</v>
       </c>
       <c r="E35">
-        <v>1522.2729999999999</v>
+        <v>196.84200000000001</v>
       </c>
       <c r="F35">
-        <v>1074.337</v>
+        <v>46.731999999999999</v>
       </c>
       <c r="G35">
-        <v>9442.241</v>
+        <v>1253.471</v>
       </c>
       <c r="H35">
-        <v>12895.262000000001</v>
+        <v>2033.482</v>
       </c>
       <c r="I35">
-        <v>416.18700000000001</v>
+        <v>39.177</v>
       </c>
       <c r="J35">
-        <v>3766.6669999999999</v>
+        <v>22.82</v>
       </c>
       <c r="K35">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2805.6280000000002</v>
+        <v>369.99799999999999</v>
       </c>
       <c r="O35">
-        <v>7604.0659999999998</v>
+        <v>530.22400000000005</v>
       </c>
       <c r="P35">
-        <v>4776.9870000000001</v>
+        <v>45.216999999999999</v>
       </c>
       <c r="Q35">
-        <v>1572.3</v>
+        <v>-278.26499999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
-        <v>10800</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>5291.1959999999999</v>
+        <v>1503.258</v>
       </c>
       <c r="U35">
-        <v>4931.6109999999999</v>
+        <v>374.64800000000002</v>
       </c>
       <c r="V35">
-        <v>932.82100000000003</v>
+        <v>-24.152000000000001</v>
       </c>
       <c r="W35">
-        <v>-171.196</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>1643.5219999999999</v>
+        <v>-240.05099999999999</v>
       </c>
       <c r="Y35">
-        <v>46.213000000000001</v>
+        <v>17.123000000000001</v>
       </c>
       <c r="Z35">
-        <v>-931.38</v>
+        <v>30.521999999999998</v>
       </c>
       <c r="AA35">
-        <v>547.39</v>
+        <v>-198.35900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>541.82500000000005</v>
+        <v>-88.49</v>
       </c>
       <c r="D36">
-        <v>2361.1469999999999</v>
+        <v>217.76400000000001</v>
       </c>
       <c r="E36">
-        <v>1455.5219999999999</v>
+        <v>253.58500000000001</v>
       </c>
       <c r="F36">
-        <v>1080.8910000000001</v>
+        <v>67.757000000000005</v>
       </c>
       <c r="G36">
-        <v>8560.4089999999997</v>
+        <v>1237.1400000000001</v>
       </c>
       <c r="H36">
-        <v>12001.333000000001</v>
+        <v>1993.184</v>
       </c>
       <c r="I36">
-        <v>376.56099999999998</v>
+        <v>49.606000000000002</v>
       </c>
       <c r="J36">
-        <v>3767.703</v>
+        <v>40.886000000000003</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2371.65</v>
+        <v>382.07600000000002</v>
       </c>
       <c r="O36">
-        <v>7327.4679999999998</v>
+        <v>540.09500000000003</v>
       </c>
       <c r="P36">
-        <v>4495.0479999999998</v>
+        <v>46.234000000000002</v>
       </c>
       <c r="Q36">
-        <v>-1273.989</v>
+        <v>-0.48099999999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
-        <v>10700</v>
+        <v>2711</v>
       </c>
       <c r="T36">
-        <v>4673.8649999999998</v>
+        <v>1453.0889999999999</v>
       </c>
       <c r="U36">
-        <v>3658.2190000000001</v>
+        <v>374.16699999999997</v>
       </c>
       <c r="V36">
-        <v>880.48699999999997</v>
+        <v>-58.12</v>
       </c>
       <c r="W36">
-        <v>-164.87299999999999</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-1527.856</v>
+        <v>8.6869999999999994</v>
       </c>
       <c r="Y36">
-        <v>55.064999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-555.46799999999996</v>
+        <v>93.055999999999997</v>
       </c>
       <c r="AA36">
-        <v>541.82500000000005</v>
+        <v>-88.49</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>465.78899999999999</v>
+        <v>16.797000000000001</v>
       </c>
       <c r="D37">
-        <v>2165.7460000000001</v>
+        <v>318.548</v>
       </c>
       <c r="E37">
-        <v>1635.643</v>
+        <v>325.75599999999997</v>
       </c>
       <c r="F37">
-        <v>981.71</v>
+        <v>134.435</v>
       </c>
       <c r="G37">
-        <v>8834.6149999999998</v>
+        <v>1240.454</v>
       </c>
       <c r="H37">
-        <v>12343.502</v>
+        <v>1995.105</v>
       </c>
       <c r="I37">
-        <v>415.80799999999999</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="J37">
-        <v>3775.9560000000001</v>
+        <v>17.295000000000002</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-28.965</v>
+        <v>-1.915</v>
       </c>
       <c r="N37">
-        <v>2457.6819999999998</v>
+        <v>336.911</v>
       </c>
       <c r="O37">
-        <v>7407.1090000000004</v>
+        <v>491.34500000000003</v>
       </c>
       <c r="P37">
-        <v>4541.902</v>
+        <v>47.155999999999999</v>
       </c>
       <c r="Q37">
-        <v>948.44</v>
+        <v>-13.004</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="S37">
-        <v>10700</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>4936.393</v>
+        <v>1503.76</v>
       </c>
       <c r="U37">
-        <v>4607.1819999999998</v>
+        <v>361.16300000000001</v>
       </c>
       <c r="V37">
-        <v>464.04700000000003</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="W37">
-        <v>-158.86799999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-262.096</v>
+        <v>4.3979999999999997</v>
       </c>
       <c r="Y37">
-        <v>82.680999999999997</v>
+        <v>18.492000000000001</v>
       </c>
       <c r="Z37">
-        <v>790.47799999999995</v>
+        <v>-10.736000000000001</v>
       </c>
       <c r="AA37">
-        <v>465.78899999999999</v>
+        <v>16.797000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>514.51</v>
+        <v>69.573999999999998</v>
       </c>
       <c r="D38">
-        <v>2583.5010000000002</v>
+        <v>487.17599999999999</v>
       </c>
       <c r="E38">
-        <v>2030.49</v>
+        <v>420.48599999999999</v>
       </c>
       <c r="F38">
-        <v>1179.644</v>
+        <v>221.18700000000001</v>
       </c>
       <c r="G38">
-        <v>8454.9650000000001</v>
+        <v>1434.981</v>
       </c>
       <c r="H38">
-        <v>11914.121999999999</v>
+        <v>2184.8420000000001</v>
       </c>
       <c r="I38">
-        <v>452.779</v>
+        <v>112.389</v>
       </c>
       <c r="J38">
-        <v>3774.3490000000002</v>
+        <v>17.346</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2565.5010000000002</v>
+        <v>445.24299999999999</v>
       </c>
       <c r="O38">
-        <v>7534.6930000000002</v>
+        <v>600.05799999999999</v>
       </c>
       <c r="P38">
-        <v>4528.027</v>
+        <v>46.518999999999998</v>
       </c>
       <c r="Q38">
-        <v>-1572.0419999999999</v>
+        <v>69.003</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="S38">
-        <v>10700</v>
+        <v>3000</v>
       </c>
       <c r="T38">
-        <v>4379.4290000000001</v>
+        <v>1584.7840000000001</v>
       </c>
       <c r="U38">
-        <v>3035.8870000000002</v>
+        <v>430.166</v>
       </c>
       <c r="V38">
-        <v>307.928</v>
+        <v>73.31</v>
       </c>
       <c r="W38">
-        <v>-166.721</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1150.6959999999999</v>
+        <v>3.1480000000000001</v>
       </c>
       <c r="Y38">
-        <v>82.16</v>
+        <v>17.798999999999999</v>
       </c>
       <c r="Z38">
-        <v>-662.28700000000003</v>
+        <v>-1.016</v>
       </c>
       <c r="AA38">
-        <v>514.51</v>
+        <v>69.573999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>574.78099999999995</v>
+        <v>120.301</v>
       </c>
       <c r="D39">
-        <v>2503.625</v>
+        <v>632.76300000000003</v>
       </c>
       <c r="E39">
-        <v>2191.0700000000002</v>
+        <v>521.80999999999995</v>
       </c>
       <c r="F39">
-        <v>1167.0070000000001</v>
+        <v>292.87099999999998</v>
       </c>
       <c r="G39">
-        <v>9408.7849999999999</v>
+        <v>1604.7349999999999</v>
       </c>
       <c r="H39">
-        <v>12938.635</v>
+        <v>2324.3589999999999</v>
       </c>
       <c r="I39">
-        <v>498.86</v>
+        <v>126.922</v>
       </c>
       <c r="J39">
-        <v>5032.7780000000002</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2105.6610000000001</v>
+        <v>533.36099999999999</v>
       </c>
       <c r="O39">
-        <v>8401.0280000000002</v>
+        <v>679.91099999999994</v>
       </c>
       <c r="P39">
-        <v>5287.7139999999999</v>
+        <v>25.826000000000001</v>
       </c>
       <c r="Q39">
-        <v>925.947</v>
+        <v>31.202999999999999</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="S39">
-        <v>11000</v>
+        <v>3100</v>
       </c>
       <c r="T39">
-        <v>4537.607</v>
+        <v>1644.4480000000001</v>
       </c>
       <c r="U39">
-        <v>3961.5859999999998</v>
+        <v>461.36900000000003</v>
       </c>
       <c r="V39">
-        <v>541.428</v>
+        <v>109.26600000000001</v>
       </c>
       <c r="W39">
-        <v>-163.51</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>225.46199999999999</v>
+        <v>-82.730999999999995</v>
       </c>
       <c r="Y39">
-        <v>133.81200000000001</v>
+        <v>16.555</v>
       </c>
       <c r="Z39">
-        <v>211.15899999999999</v>
+        <v>-3.238</v>
       </c>
       <c r="AA39">
-        <v>574.78099999999995</v>
+        <v>120.301</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>696.673</v>
+        <v>139.99700000000001</v>
       </c>
       <c r="D40">
-        <v>2791.864</v>
+        <v>695.28899999999999</v>
       </c>
       <c r="E40">
-        <v>2097.0990000000002</v>
+        <v>499.89</v>
       </c>
       <c r="F40">
-        <v>1280.3320000000001</v>
+        <v>324.88</v>
       </c>
       <c r="G40">
-        <v>10853.535</v>
+        <v>1756.6610000000001</v>
       </c>
       <c r="H40">
-        <v>14559.047</v>
+        <v>2487.3919999999998</v>
       </c>
       <c r="I40">
-        <v>592.38699999999994</v>
+        <v>121.099</v>
       </c>
       <c r="J40">
-        <v>4959.3710000000001</v>
+        <v>17.645</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3162.442</v>
+        <v>558.65700000000004</v>
       </c>
       <c r="O40">
-        <v>9386.5529999999999</v>
+        <v>719.25699999999995</v>
       </c>
       <c r="P40">
-        <v>5984.0940000000001</v>
+        <v>22.611999999999998</v>
       </c>
       <c r="Q40">
-        <v>953.34199999999998</v>
+        <v>84.397999999999996</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="S40">
-        <v>11300</v>
+        <v>3232</v>
       </c>
       <c r="T40">
-        <v>5172.4939999999997</v>
+        <v>1768.135</v>
       </c>
       <c r="U40">
-        <v>4915.1719999999996</v>
+        <v>545.76700000000005</v>
       </c>
       <c r="V40">
-        <v>813.048</v>
+        <v>165.43299999999999</v>
       </c>
       <c r="W40">
-        <v>-167.739</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>563.4</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="Y40">
-        <v>135.36600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-354.35</v>
+        <v>-65.180999999999997</v>
       </c>
       <c r="AA40">
-        <v>696.673</v>
+        <v>139.99700000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40447</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>823.45100000000002</v>
+        <v>193.72399999999999</v>
       </c>
       <c r="D41">
-        <v>3177.08</v>
+        <v>805.87400000000002</v>
       </c>
       <c r="E41">
-        <v>2317.922</v>
+        <v>526.904</v>
       </c>
       <c r="F41">
-        <v>1506.1790000000001</v>
+        <v>377.32600000000002</v>
       </c>
       <c r="G41">
-        <v>11274.883</v>
+        <v>1919.431</v>
       </c>
       <c r="H41">
-        <v>15057.008</v>
+        <v>2652.2959999999998</v>
       </c>
       <c r="I41">
-        <v>662.67399999999998</v>
+        <v>143.45400000000001</v>
       </c>
       <c r="J41">
-        <v>4959.7330000000002</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-19.172999999999998</v>
+        <v>-3.3330000000000002</v>
       </c>
       <c r="N41">
-        <v>3406.8679999999999</v>
+        <v>612.39700000000005</v>
       </c>
       <c r="O41">
-        <v>9637.8230000000003</v>
+        <v>765.66800000000001</v>
       </c>
       <c r="P41">
-        <v>5827.6329999999998</v>
+        <v>20.303000000000001</v>
       </c>
       <c r="Q41">
-        <v>-786.55799999999999</v>
+        <v>82.513999999999996</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40447</v>
       </c>
       <c r="S41">
-        <v>11700</v>
+        <v>3300</v>
       </c>
       <c r="T41">
-        <v>5419.1850000000004</v>
+        <v>1886.6279999999999</v>
       </c>
       <c r="U41">
-        <v>4129.067</v>
+        <v>628.28099999999995</v>
       </c>
       <c r="V41">
-        <v>642.51099999999997</v>
+        <v>255.744</v>
       </c>
       <c r="W41">
-        <v>-167.12899999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-631.48500000000001</v>
+        <v>-136.19900000000001</v>
       </c>
       <c r="Y41">
-        <v>33.762</v>
+        <v>14.943</v>
       </c>
       <c r="Z41">
-        <v>-737.07399999999996</v>
+        <v>-24.506</v>
       </c>
       <c r="AA41">
-        <v>823.45100000000002</v>
+        <v>193.72399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44192</v>
+        <v>40538</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>221.85599999999999</v>
+      </c>
+      <c r="D42">
+        <v>870.71400000000006</v>
+      </c>
+      <c r="E42">
+        <v>689.4</v>
+      </c>
+      <c r="F42">
+        <v>407.43299999999999</v>
+      </c>
+      <c r="G42">
+        <v>2179.7449999999999</v>
+      </c>
+      <c r="H42">
+        <v>2933.2170000000001</v>
+      </c>
+      <c r="I42">
+        <v>168.75299999999999</v>
+      </c>
+      <c r="J42">
+        <v>1.37</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>689.87099999999998</v>
+      </c>
+      <c r="O42">
+        <v>848.43799999999999</v>
+      </c>
+      <c r="P42">
+        <v>20.637</v>
+      </c>
+      <c r="Q42">
+        <v>100.779</v>
+      </c>
+      <c r="R42">
+        <v>40538</v>
+      </c>
+      <c r="S42">
+        <v>3400</v>
+      </c>
+      <c r="T42">
+        <v>2084.779</v>
+      </c>
+      <c r="U42">
+        <v>729.06</v>
+      </c>
+      <c r="V42">
+        <v>185.583</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-51.533000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>15.154</v>
+      </c>
+      <c r="Z42">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>221.85599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40629</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>182.24</v>
+      </c>
+      <c r="D43">
+        <v>809.08699999999999</v>
+      </c>
+      <c r="E43">
+        <v>637.79499999999996</v>
+      </c>
+      <c r="F43">
+        <v>374.01900000000001</v>
+      </c>
+      <c r="G43">
+        <v>2372.7739999999999</v>
+      </c>
+      <c r="H43">
+        <v>3148.4949999999999</v>
+      </c>
+      <c r="I43">
+        <v>184.119</v>
+      </c>
+      <c r="J43">
+        <v>1.014</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>667.39099999999996</v>
+      </c>
+      <c r="O43">
+        <v>825.33900000000006</v>
+      </c>
+      <c r="P43">
+        <v>20.190999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>213.65</v>
+      </c>
+      <c r="R43">
+        <v>40629</v>
+      </c>
+      <c r="S43">
+        <v>3500</v>
+      </c>
+      <c r="T43">
+        <v>2323.1559999999999</v>
+      </c>
+      <c r="U43">
+        <v>942.71</v>
+      </c>
+      <c r="V43">
+        <v>241.59299999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>14.724</v>
+      </c>
+      <c r="Y43">
+        <v>14.935</v>
+      </c>
+      <c r="Z43">
+        <v>-11.484999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>182.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40720</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>125.928</v>
+      </c>
+      <c r="D44">
+        <v>752.01800000000003</v>
+      </c>
+      <c r="E44">
+        <v>590.56799999999998</v>
+      </c>
+      <c r="F44">
+        <v>338.45400000000001</v>
+      </c>
+      <c r="G44">
+        <v>3273.2649999999999</v>
+      </c>
+      <c r="H44">
+        <v>4053.8670000000002</v>
+      </c>
+      <c r="I44">
+        <v>163.541</v>
+      </c>
+      <c r="J44">
+        <v>738.48800000000006</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>680.75900000000001</v>
+      </c>
+      <c r="O44">
+        <v>1584.0219999999999</v>
+      </c>
+      <c r="P44">
+        <v>743.27</v>
+      </c>
+      <c r="Q44">
+        <v>549.42200000000003</v>
+      </c>
+      <c r="R44">
+        <v>40720</v>
+      </c>
+      <c r="S44">
+        <v>3700</v>
+      </c>
+      <c r="T44">
+        <v>2469.8449999999998</v>
+      </c>
+      <c r="U44">
+        <v>1492.1320000000001</v>
+      </c>
+      <c r="V44">
+        <v>198.108</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>699.99400000000003</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-316.78899999999999</v>
+      </c>
+      <c r="AA44">
+        <v>125.928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40811</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>71.837999999999994</v>
+      </c>
+      <c r="D45">
+        <v>680.43600000000004</v>
+      </c>
+      <c r="E45">
+        <v>523.24</v>
+      </c>
+      <c r="F45">
+        <v>283.88299999999998</v>
+      </c>
+      <c r="G45">
+        <v>3134.6289999999999</v>
+      </c>
+      <c r="H45">
+        <v>3900.9540000000002</v>
+      </c>
+      <c r="I45">
+        <v>113.277</v>
+      </c>
+      <c r="J45">
+        <v>729.02099999999996</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-1.5640000000000001</v>
+      </c>
+      <c r="N45">
+        <v>594.59400000000005</v>
+      </c>
+      <c r="O45">
+        <v>1511.0719999999999</v>
+      </c>
+      <c r="P45">
+        <v>747.69799999999998</v>
+      </c>
+      <c r="Q45">
+        <v>-152.81399999999999</v>
+      </c>
+      <c r="R45">
+        <v>40811</v>
+      </c>
+      <c r="S45">
+        <v>3750</v>
+      </c>
+      <c r="T45">
+        <v>2389.8820000000001</v>
+      </c>
+      <c r="U45">
+        <v>1339.318</v>
+      </c>
+      <c r="V45">
+        <v>86.9</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-137.64400000000001</v>
+      </c>
+      <c r="Y45">
+        <v>14.231</v>
+      </c>
+      <c r="Z45">
+        <v>-85.259</v>
+      </c>
+      <c r="AA45">
+        <v>71.837999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40902</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>33.212000000000003</v>
+      </c>
+      <c r="D46">
+        <v>583.98099999999999</v>
+      </c>
+      <c r="E46">
+        <v>462.24299999999999</v>
+      </c>
+      <c r="F46">
+        <v>233.96700000000001</v>
+      </c>
+      <c r="G46">
+        <v>3212.8510000000001</v>
+      </c>
+      <c r="H46">
+        <v>3978.1469999999999</v>
+      </c>
+      <c r="I46">
+        <v>108.11799999999999</v>
+      </c>
+      <c r="J46">
+        <v>735.68799999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>593.60500000000002</v>
+      </c>
+      <c r="O46">
+        <v>1515.403</v>
+      </c>
+      <c r="P46">
+        <v>751.89499999999998</v>
+      </c>
+      <c r="Q46">
+        <v>167.61</v>
+      </c>
+      <c r="R46">
+        <v>40902</v>
+      </c>
+      <c r="S46">
+        <v>3850</v>
+      </c>
+      <c r="T46">
+        <v>2462.7440000000001</v>
+      </c>
+      <c r="U46">
+        <v>1506.9280000000001</v>
+      </c>
+      <c r="V46">
+        <v>169.01599999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>30.302</v>
+      </c>
+      <c r="Y46">
+        <v>13.39</v>
+      </c>
+      <c r="Z46">
+        <v>-14.933999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>33.212000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40993</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>45.603999999999999</v>
+      </c>
+      <c r="D47">
+        <v>658.96100000000001</v>
+      </c>
+      <c r="E47">
+        <v>471.77600000000001</v>
+      </c>
+      <c r="F47">
+        <v>267.14699999999999</v>
+      </c>
+      <c r="G47">
+        <v>3423.9090000000001</v>
+      </c>
+      <c r="H47">
+        <v>4193.2629999999999</v>
+      </c>
+      <c r="I47">
+        <v>179.44499999999999</v>
+      </c>
+      <c r="J47">
+        <v>742.44200000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>651.65499999999997</v>
+      </c>
+      <c r="O47">
+        <v>1584.1210000000001</v>
+      </c>
+      <c r="P47">
+        <v>757.92700000000002</v>
+      </c>
+      <c r="Q47">
+        <v>-96.661000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40993</v>
+      </c>
+      <c r="S47">
+        <v>3900</v>
+      </c>
+      <c r="T47">
+        <v>2609.1419999999998</v>
+      </c>
+      <c r="U47">
+        <v>1410.2670000000001</v>
+      </c>
+      <c r="V47">
+        <v>146.39699999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>67.596000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>12.984999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>-282.22500000000002</v>
+      </c>
+      <c r="AA47">
+        <v>45.603999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41084</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="D48">
+        <v>741.81399999999996</v>
+      </c>
+      <c r="E48">
+        <v>765.81799999999998</v>
+      </c>
+      <c r="F48">
+        <v>298.072</v>
+      </c>
+      <c r="G48">
+        <v>4415.1090000000004</v>
+      </c>
+      <c r="H48">
+        <v>8004.652</v>
+      </c>
+      <c r="I48">
+        <v>258.77800000000002</v>
+      </c>
+      <c r="J48">
+        <v>939.64300000000003</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1426.9280000000001</v>
+      </c>
+      <c r="O48">
+        <v>2872.8710000000001</v>
+      </c>
+      <c r="P48">
+        <v>1463.2650000000001</v>
+      </c>
+      <c r="Q48">
+        <v>154.48500000000001</v>
+      </c>
+      <c r="R48">
+        <v>41084</v>
+      </c>
+      <c r="S48">
+        <v>6600</v>
+      </c>
+      <c r="T48">
+        <v>5131.7809999999999</v>
+      </c>
+      <c r="U48">
+        <v>1564.752</v>
+      </c>
+      <c r="V48">
+        <v>96.715000000000003</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-653.00099999999998</v>
+      </c>
+      <c r="Y48">
+        <v>12.483000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>329.68900000000002</v>
+      </c>
+      <c r="AA48">
+        <v>18.068999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="D49">
+        <v>906.88800000000003</v>
+      </c>
+      <c r="E49">
+        <v>640.21699999999998</v>
+      </c>
+      <c r="F49">
+        <v>333.88600000000002</v>
+      </c>
+      <c r="G49">
+        <v>4169.4160000000002</v>
+      </c>
+      <c r="H49">
+        <v>7724.3459999999995</v>
+      </c>
+      <c r="I49">
+        <v>148.12</v>
+      </c>
+      <c r="J49">
+        <v>1266.616</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="N49">
+        <v>854.25699999999995</v>
+      </c>
+      <c r="O49">
+        <v>2712.7</v>
+      </c>
+      <c r="P49">
+        <v>1280.3130000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-153.286</v>
+      </c>
+      <c r="R49">
+        <v>41175</v>
+      </c>
+      <c r="S49">
+        <v>6600</v>
+      </c>
+      <c r="T49">
+        <v>5011.6459999999997</v>
+      </c>
+      <c r="U49">
+        <v>1411.4659999999999</v>
+      </c>
+      <c r="V49">
+        <v>249.262</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-344.86799999999999</v>
+      </c>
+      <c r="Y49">
+        <v>12.176</v>
+      </c>
+      <c r="Z49">
+        <v>-16.638000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>2.7679999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>6.4080000000000004</v>
+      </c>
+      <c r="D50">
+        <v>860.88599999999997</v>
+      </c>
+      <c r="E50">
+        <v>590.92499999999995</v>
+      </c>
+      <c r="F50">
+        <v>315.41399999999999</v>
+      </c>
+      <c r="G50">
+        <v>3846.4079999999999</v>
+      </c>
+      <c r="H50">
+        <v>7363.1639999999998</v>
+      </c>
+      <c r="I50">
+        <v>156.23699999999999</v>
+      </c>
+      <c r="J50">
+        <v>1274.4590000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>825.48199999999997</v>
+      </c>
+      <c r="O50">
+        <v>2666.5740000000001</v>
+      </c>
+      <c r="P50">
+        <v>1288.193</v>
+      </c>
+      <c r="Q50">
+        <v>-221.27699999999999</v>
+      </c>
+      <c r="R50">
+        <v>41266</v>
+      </c>
+      <c r="S50">
+        <v>6600</v>
+      </c>
+      <c r="T50">
+        <v>4696.59</v>
+      </c>
+      <c r="U50">
+        <v>1190.1890000000001</v>
+      </c>
+      <c r="V50">
+        <v>193.226</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-348.54199999999997</v>
+      </c>
+      <c r="Y50">
+        <v>12.27</v>
+      </c>
+      <c r="Z50">
+        <v>-23.25</v>
+      </c>
+      <c r="AA50">
+        <v>6.4080000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>18.995999999999999</v>
+      </c>
+      <c r="D51">
+        <v>844.928</v>
+      </c>
+      <c r="E51">
+        <v>544.07000000000005</v>
+      </c>
+      <c r="F51">
+        <v>339.83199999999999</v>
+      </c>
+      <c r="G51">
+        <v>3669.9189999999999</v>
+      </c>
+      <c r="H51">
+        <v>7146.3019999999997</v>
+      </c>
+      <c r="I51">
+        <v>173.28700000000001</v>
+      </c>
+      <c r="J51">
+        <v>1282.395</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>801.01300000000003</v>
+      </c>
+      <c r="O51">
+        <v>2604.1019999999999</v>
+      </c>
+      <c r="P51">
+        <v>1296.154</v>
+      </c>
+      <c r="Q51">
+        <v>-171.08</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>6500</v>
+      </c>
+      <c r="T51">
+        <v>4542.2</v>
+      </c>
+      <c r="U51">
+        <v>1019.109</v>
+      </c>
+      <c r="V51">
+        <v>102.45699999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-221.33</v>
+      </c>
+      <c r="Y51">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="Z51">
+        <v>-12.074999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>18.995999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>85.706999999999994</v>
+      </c>
+      <c r="D52">
+        <v>986.21400000000006</v>
+      </c>
+      <c r="E52">
+        <v>602.62400000000002</v>
+      </c>
+      <c r="F52">
+        <v>413.92700000000002</v>
+      </c>
+      <c r="G52">
+        <v>3793.8290000000002</v>
+      </c>
+      <c r="H52">
+        <v>7250.3149999999996</v>
+      </c>
+      <c r="I52">
+        <v>200.25399999999999</v>
+      </c>
+      <c r="J52">
+        <v>964.32</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1404.4749999999999</v>
+      </c>
+      <c r="O52">
+        <v>2761.4430000000002</v>
+      </c>
+      <c r="P52">
+        <v>1490.8309999999999</v>
+      </c>
+      <c r="Q52">
+        <v>143.364</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>6600</v>
+      </c>
+      <c r="T52">
+        <v>4488.8720000000003</v>
+      </c>
+      <c r="U52">
+        <v>1162.473</v>
+      </c>
+      <c r="V52">
+        <v>174.988</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>26.95</v>
+      </c>
+      <c r="Y52">
+        <v>11.856</v>
+      </c>
+      <c r="Z52">
+        <v>-6.4420000000000002</v>
+      </c>
+      <c r="AA52">
+        <v>85.706999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>85.506</v>
+      </c>
+      <c r="D53">
+        <v>1015.059</v>
+      </c>
+      <c r="E53">
+        <v>713.524</v>
+      </c>
+      <c r="F53">
+        <v>431.858</v>
+      </c>
+      <c r="G53">
+        <v>3924.252</v>
+      </c>
+      <c r="H53">
+        <v>7290.3450000000003</v>
+      </c>
+      <c r="I53">
+        <v>206.072</v>
+      </c>
+      <c r="J53">
+        <v>970.64200000000005</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="N53">
+        <v>1402.89</v>
+      </c>
+      <c r="O53">
+        <v>2763.0729999999999</v>
+      </c>
+      <c r="P53">
+        <v>1497.953</v>
+      </c>
+      <c r="Q53">
+        <v>-6.2889999999999997</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>6500</v>
+      </c>
+      <c r="T53">
+        <v>4527.2719999999999</v>
+      </c>
+      <c r="U53">
+        <v>1156.184</v>
+      </c>
+      <c r="V53">
+        <v>51.924999999999997</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-76.644999999999996</v>
+      </c>
+      <c r="Y53">
+        <v>11.773</v>
+      </c>
+      <c r="Z53">
+        <v>42.567</v>
+      </c>
+      <c r="AA53">
+        <v>85.506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>148.99199999999999</v>
+      </c>
+      <c r="D54">
+        <v>1116.0609999999999</v>
+      </c>
+      <c r="E54">
+        <v>909.72</v>
+      </c>
+      <c r="F54">
+        <v>487.78899999999999</v>
+      </c>
+      <c r="G54">
+        <v>4249.0360000000001</v>
+      </c>
+      <c r="H54">
+        <v>7555.7979999999998</v>
+      </c>
+      <c r="I54">
+        <v>252.58600000000001</v>
+      </c>
+      <c r="J54">
+        <v>977.05399999999997</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1522.5719999999999</v>
+      </c>
+      <c r="O54">
+        <v>2889.7080000000001</v>
+      </c>
+      <c r="P54">
+        <v>1504.9110000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-23.629000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>6550</v>
+      </c>
+      <c r="T54">
+        <v>4666.09</v>
+      </c>
+      <c r="U54">
+        <v>1132.5550000000001</v>
+      </c>
+      <c r="V54">
+        <v>129.023</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-40.215000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>11.375999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-88.754000000000005</v>
+      </c>
+      <c r="AA54">
+        <v>148.99199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>164.39599999999999</v>
+      </c>
+      <c r="D55">
+        <v>1227.3920000000001</v>
+      </c>
+      <c r="E55">
+        <v>818.39</v>
+      </c>
+      <c r="F55">
+        <v>530.798</v>
+      </c>
+      <c r="G55">
+        <v>4447.3490000000002</v>
+      </c>
+      <c r="H55">
+        <v>7707.3670000000002</v>
+      </c>
+      <c r="I55">
+        <v>252.517</v>
+      </c>
+      <c r="J55">
+        <v>983.65599999999995</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1542.7049999999999</v>
+      </c>
+      <c r="O55">
+        <v>2900.0749999999998</v>
+      </c>
+      <c r="P55">
+        <v>1512.345</v>
+      </c>
+      <c r="Q55">
+        <v>159.74600000000001</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>6600</v>
+      </c>
+      <c r="T55">
+        <v>4807.2920000000004</v>
+      </c>
+      <c r="U55">
+        <v>1292.3009999999999</v>
+      </c>
+      <c r="V55">
+        <v>290.20999999999998</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-34.502000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>11.288</v>
+      </c>
+      <c r="Z55">
+        <v>-82.744</v>
+      </c>
+      <c r="AA55">
+        <v>164.39599999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>233.39500000000001</v>
+      </c>
+      <c r="D56">
+        <v>1248.797</v>
+      </c>
+      <c r="E56">
+        <v>800.61599999999999</v>
+      </c>
+      <c r="F56">
+        <v>557.03599999999994</v>
+      </c>
+      <c r="G56">
+        <v>4783.6620000000003</v>
+      </c>
+      <c r="H56">
+        <v>7993.3059999999996</v>
+      </c>
+      <c r="I56">
+        <v>223.51499999999999</v>
+      </c>
+      <c r="J56">
+        <v>806.899</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1582.001</v>
+      </c>
+      <c r="O56">
+        <v>2963.5709999999999</v>
+      </c>
+      <c r="P56">
+        <v>1335.4690000000001</v>
+      </c>
+      <c r="Q56">
+        <v>160.376</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>6500</v>
+      </c>
+      <c r="T56">
+        <v>5029.7349999999997</v>
+      </c>
+      <c r="U56">
+        <v>1452.6769999999999</v>
+      </c>
+      <c r="V56">
+        <v>245.89099999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-11.372999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>10.303000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>-155.035</v>
+      </c>
+      <c r="AA56">
+        <v>233.39500000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>141.08099999999999</v>
+      </c>
+      <c r="D57">
+        <v>1152.3679999999999</v>
+      </c>
+      <c r="E57">
+        <v>864.40300000000002</v>
+      </c>
+      <c r="F57">
+        <v>505.53899999999999</v>
+      </c>
+      <c r="G57">
+        <v>4690.9759999999997</v>
+      </c>
+      <c r="H57">
+        <v>7893.8280000000004</v>
+      </c>
+      <c r="I57">
+        <v>249.779</v>
+      </c>
+      <c r="J57">
+        <v>996.92399999999998</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-0.107</v>
+      </c>
+      <c r="N57">
+        <v>1599.625</v>
+      </c>
+      <c r="O57">
+        <v>3003.1550000000002</v>
+      </c>
+      <c r="P57">
+        <v>1525.8</v>
+      </c>
+      <c r="Q57">
+        <v>-158.999</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>6600</v>
+      </c>
+      <c r="T57">
+        <v>4890.6729999999998</v>
+      </c>
+      <c r="U57">
+        <v>1293.6780000000001</v>
+      </c>
+      <c r="V57">
+        <v>141.161</v>
+      </c>
+      <c r="W57">
+        <v>-29.24</v>
+      </c>
+      <c r="X57">
+        <v>-305.83699999999999</v>
+      </c>
+      <c r="Y57">
+        <v>9.7769999999999992</v>
+      </c>
+      <c r="Z57">
+        <v>9.6449999999999996</v>
+      </c>
+      <c r="AA57">
+        <v>141.08099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>176.94</v>
+      </c>
+      <c r="D58">
+        <v>1232.241</v>
+      </c>
+      <c r="E58">
+        <v>944.01400000000001</v>
+      </c>
+      <c r="F58">
+        <v>536.65700000000004</v>
+      </c>
+      <c r="G58">
+        <v>4914.8119999999999</v>
+      </c>
+      <c r="H58">
+        <v>8110.6890000000003</v>
+      </c>
+      <c r="I58">
+        <v>296.423</v>
+      </c>
+      <c r="J58">
+        <v>1003.68</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1708.6559999999999</v>
+      </c>
+      <c r="O58">
+        <v>3110.2539999999999</v>
+      </c>
+      <c r="P58">
+        <v>1532.348</v>
+      </c>
+      <c r="Q58">
+        <v>-312.40300000000002</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>6900</v>
+      </c>
+      <c r="T58">
+        <v>5000.4350000000004</v>
+      </c>
+      <c r="U58">
+        <v>981.27499999999998</v>
+      </c>
+      <c r="V58">
+        <v>161.239</v>
+      </c>
+      <c r="W58">
+        <v>-29.381</v>
+      </c>
+      <c r="X58">
+        <v>-90.769000000000005</v>
+      </c>
+      <c r="Y58">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>-321.58999999999997</v>
+      </c>
+      <c r="AA58">
+        <v>176.94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>206.285</v>
+      </c>
+      <c r="D59">
+        <v>1393.3330000000001</v>
+      </c>
+      <c r="E59">
+        <v>1046.8</v>
+      </c>
+      <c r="F59">
+        <v>600.60199999999998</v>
+      </c>
+      <c r="G59">
+        <v>6060.9669999999996</v>
+      </c>
+      <c r="H59">
+        <v>9238.5409999999993</v>
+      </c>
+      <c r="I59">
+        <v>322.16000000000003</v>
+      </c>
+      <c r="J59">
+        <v>2004.271</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1734.9960000000001</v>
+      </c>
+      <c r="O59">
+        <v>4141.4859999999999</v>
+      </c>
+      <c r="P59">
+        <v>2532.3490000000002</v>
+      </c>
+      <c r="Q59">
+        <v>654.36099999999999</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>7000</v>
+      </c>
+      <c r="T59">
+        <v>5097.0550000000003</v>
+      </c>
+      <c r="U59">
+        <v>1635.636</v>
+      </c>
+      <c r="V59">
+        <v>191.03700000000001</v>
+      </c>
+      <c r="W59">
+        <v>-28.724</v>
+      </c>
+      <c r="X59">
+        <v>862.63499999999999</v>
+      </c>
+      <c r="Y59">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="Z59">
+        <v>-359.416</v>
+      </c>
+      <c r="AA59">
+        <v>206.285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>131.27099999999999</v>
+      </c>
+      <c r="D60">
+        <v>1481.37</v>
+      </c>
+      <c r="E60">
+        <v>1093.5820000000001</v>
+      </c>
+      <c r="F60">
+        <v>651.35900000000004</v>
+      </c>
+      <c r="G60">
+        <v>6270.8490000000002</v>
+      </c>
+      <c r="H60">
+        <v>9364.6479999999992</v>
+      </c>
+      <c r="I60">
+        <v>300.20299999999997</v>
+      </c>
+      <c r="J60">
+        <v>993.96</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2631.3609999999999</v>
+      </c>
+      <c r="O60">
+        <v>4261.5039999999999</v>
+      </c>
+      <c r="P60">
+        <v>2361.0320000000002</v>
+      </c>
+      <c r="Q60">
+        <v>-134.09700000000001</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>7300</v>
+      </c>
+      <c r="T60">
+        <v>5103.1440000000002</v>
+      </c>
+      <c r="U60">
+        <v>1501.539</v>
+      </c>
+      <c r="V60">
+        <v>292.06599999999997</v>
+      </c>
+      <c r="W60">
+        <v>-28.713999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-87.557000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>7.4219999999999997</v>
+      </c>
+      <c r="Z60">
+        <v>-280.87900000000002</v>
+      </c>
+      <c r="AA60">
+        <v>131.27099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>288.67899999999997</v>
+      </c>
+      <c r="D61">
+        <v>1600.0429999999999</v>
+      </c>
+      <c r="E61">
+        <v>1088.942</v>
+      </c>
+      <c r="F61">
+        <v>722.36300000000006</v>
+      </c>
+      <c r="G61">
+        <v>6515.9809999999998</v>
+      </c>
+      <c r="H61">
+        <v>9594.4310000000005</v>
+      </c>
+      <c r="I61">
+        <v>254.33099999999999</v>
+      </c>
+      <c r="J61">
+        <v>1400.355</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="N61">
+        <v>2281.9409999999998</v>
+      </c>
+      <c r="O61">
+        <v>4236.2759999999998</v>
+      </c>
+      <c r="P61">
+        <v>2370.0070000000001</v>
+      </c>
+      <c r="Q61">
+        <v>242.786</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>7300</v>
+      </c>
+      <c r="T61">
+        <v>5358.1549999999997</v>
+      </c>
+      <c r="U61">
+        <v>1744.325</v>
+      </c>
+      <c r="V61">
+        <v>448.99700000000001</v>
+      </c>
+      <c r="W61">
+        <v>-47.658999999999999</v>
+      </c>
+      <c r="X61">
+        <v>-123.246</v>
+      </c>
+      <c r="Y61">
+        <v>0.26</v>
+      </c>
+      <c r="Z61">
+        <v>-28.202999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>288.67899999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>222.98</v>
+      </c>
+      <c r="D62">
+        <v>1425.5340000000001</v>
+      </c>
+      <c r="E62">
+        <v>1089.8499999999999</v>
+      </c>
+      <c r="F62">
+        <v>626.51</v>
+      </c>
+      <c r="G62">
+        <v>6670.1970000000001</v>
+      </c>
+      <c r="H62">
+        <v>9750.4210000000003</v>
+      </c>
+      <c r="I62">
+        <v>230.97399999999999</v>
+      </c>
+      <c r="J62">
+        <v>1404.44</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2222.98</v>
+      </c>
+      <c r="O62">
+        <v>4198.13</v>
+      </c>
+      <c r="P62">
+        <v>2378.38</v>
+      </c>
+      <c r="Q62">
+        <v>223.548</v>
+      </c>
+      <c r="R62">
+        <v>42365</v>
+      </c>
+      <c r="S62">
+        <v>7300</v>
+      </c>
+      <c r="T62">
+        <v>5552.2910000000002</v>
+      </c>
+      <c r="U62">
+        <v>1967.873</v>
+      </c>
+      <c r="V62">
+        <v>294.54500000000002</v>
+      </c>
+      <c r="W62">
+        <v>-47.896000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-85.736000000000004</v>
+      </c>
+      <c r="Y62">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Z62">
+        <v>39.201999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>222.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>143.45099999999999</v>
+      </c>
+      <c r="D63">
+        <v>1314.0550000000001</v>
+      </c>
+      <c r="E63">
+        <v>1236.617</v>
+      </c>
+      <c r="F63">
+        <v>571.26499999999999</v>
+      </c>
+      <c r="G63">
+        <v>6941.5649999999996</v>
+      </c>
+      <c r="H63">
+        <v>10024.262000000001</v>
+      </c>
+      <c r="I63">
+        <v>373.16399999999999</v>
+      </c>
+      <c r="J63">
+        <v>1411.2619999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2342.1860000000001</v>
+      </c>
+      <c r="O63">
+        <v>4331.9229999999998</v>
+      </c>
+      <c r="P63">
+        <v>2390.4670000000001</v>
+      </c>
+      <c r="Q63">
+        <v>264.14800000000002</v>
+      </c>
+      <c r="R63">
+        <v>42456</v>
+      </c>
+      <c r="S63">
+        <v>7300</v>
+      </c>
+      <c r="T63">
+        <v>5692.3389999999999</v>
+      </c>
+      <c r="U63">
+        <v>2232.0210000000002</v>
+      </c>
+      <c r="V63">
+        <v>182.911</v>
+      </c>
+      <c r="W63">
+        <v>-47.539000000000001</v>
+      </c>
+      <c r="X63">
+        <v>-57.16</v>
+      </c>
+      <c r="Y63">
+        <v>0.223</v>
+      </c>
+      <c r="Z63">
+        <v>181.93799999999999</v>
+      </c>
+      <c r="AA63">
+        <v>143.45099999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42547</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>258.93900000000002</v>
+      </c>
+      <c r="D64">
+        <v>1546.261</v>
+      </c>
+      <c r="E64">
+        <v>1262.145</v>
+      </c>
+      <c r="F64">
+        <v>698.78399999999999</v>
+      </c>
+      <c r="G64">
+        <v>9213.15</v>
+      </c>
+      <c r="H64">
+        <v>12264.315000000001</v>
+      </c>
+      <c r="I64">
+        <v>348.19900000000001</v>
+      </c>
+      <c r="J64">
+        <v>3377.924</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2418.0410000000002</v>
+      </c>
+      <c r="O64">
+        <v>6369.7979999999998</v>
+      </c>
+      <c r="P64">
+        <v>4325.8620000000001</v>
+      </c>
+      <c r="Q64">
+        <v>2807.3009999999999</v>
+      </c>
+      <c r="R64">
+        <v>42547</v>
+      </c>
+      <c r="S64">
+        <v>7500</v>
+      </c>
+      <c r="T64">
+        <v>5894.5169999999998</v>
+      </c>
+      <c r="U64">
+        <v>5039.3220000000001</v>
+      </c>
+      <c r="V64">
+        <v>423.82400000000001</v>
+      </c>
+      <c r="W64">
+        <v>-47.308</v>
+      </c>
+      <c r="X64">
+        <v>1861.8869999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>605.89099999999996</v>
+      </c>
+      <c r="AA64">
+        <v>258.93900000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42638</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>263.83499999999998</v>
+      </c>
+      <c r="D65">
+        <v>1632.4190000000001</v>
+      </c>
+      <c r="E65">
+        <v>1290.317</v>
+      </c>
+      <c r="F65">
+        <v>716.197</v>
+      </c>
+      <c r="G65">
+        <v>9599.0020000000004</v>
+      </c>
+      <c r="H65">
+        <v>12636.361999999999</v>
+      </c>
+      <c r="I65">
+        <v>349.74299999999999</v>
+      </c>
+      <c r="J65">
+        <v>3377.9940000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-0.371</v>
+      </c>
+      <c r="N65">
+        <v>2486.252</v>
+      </c>
+      <c r="O65">
+        <v>6451.4790000000003</v>
+      </c>
+      <c r="P65">
+        <v>4331.1779999999999</v>
+      </c>
+      <c r="Q65">
+        <v>822.37900000000002</v>
+      </c>
+      <c r="R65">
+        <v>42638</v>
+      </c>
+      <c r="S65">
+        <v>7800</v>
+      </c>
+      <c r="T65">
+        <v>6184.8829999999998</v>
+      </c>
+      <c r="U65">
+        <v>5861.701</v>
+      </c>
+      <c r="V65">
+        <v>473.22399999999999</v>
+      </c>
+      <c r="W65">
+        <v>-48.052</v>
+      </c>
+      <c r="X65">
+        <v>-29.507999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0.185</v>
+      </c>
+      <c r="Z65">
+        <v>431.75</v>
+      </c>
+      <c r="AA65">
+        <v>263.83499999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42729</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>332.791</v>
+      </c>
+      <c r="D66">
+        <v>1882.299</v>
+      </c>
+      <c r="E66">
+        <v>1426.307</v>
+      </c>
+      <c r="F66">
+        <v>846.79700000000003</v>
+      </c>
+      <c r="G66">
+        <v>8503.8739999999998</v>
+      </c>
+      <c r="H66">
+        <v>11521.058999999999</v>
+      </c>
+      <c r="I66">
+        <v>445.113</v>
+      </c>
+      <c r="J66">
+        <v>1785.6990000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2658.018</v>
+      </c>
+      <c r="O66">
+        <v>5125.3630000000003</v>
+      </c>
+      <c r="P66">
+        <v>2743.76</v>
+      </c>
+      <c r="Q66">
+        <v>-3357.741</v>
+      </c>
+      <c r="R66">
+        <v>42729</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>6395.6959999999999</v>
+      </c>
+      <c r="U66">
+        <v>2503.96</v>
+      </c>
+      <c r="V66">
+        <v>404.09800000000001</v>
+      </c>
+      <c r="W66">
+        <v>-48.396999999999998</v>
+      </c>
+      <c r="X66">
+        <v>-1729.258</v>
+      </c>
+      <c r="Y66">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>-1990.9280000000001</v>
+      </c>
+      <c r="AA66">
+        <v>332.791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42820</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>574.71299999999997</v>
+      </c>
+      <c r="D67">
+        <v>2153.9949999999999</v>
+      </c>
+      <c r="E67">
+        <v>1636.09</v>
+      </c>
+      <c r="F67">
+        <v>971.404</v>
+      </c>
+      <c r="G67">
+        <v>8875.9480000000003</v>
+      </c>
+      <c r="H67">
+        <v>11875.186</v>
+      </c>
+      <c r="I67">
+        <v>473.41500000000002</v>
+      </c>
+      <c r="J67">
+        <v>1789.3</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2756.739</v>
+      </c>
+      <c r="O67">
+        <v>5128.9319999999998</v>
+      </c>
+      <c r="P67">
+        <v>2700.6990000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-375.39</v>
+      </c>
+      <c r="R67">
+        <v>42820</v>
+      </c>
+      <c r="S67">
+        <v>8600</v>
+      </c>
+      <c r="T67">
+        <v>6746.2539999999999</v>
+      </c>
+      <c r="U67">
+        <v>2128.5700000000002</v>
+      </c>
+      <c r="V67">
+        <v>422.68799999999999</v>
+      </c>
+      <c r="W67">
+        <v>-73.337000000000003</v>
+      </c>
+      <c r="X67">
+        <v>-333.81900000000002</v>
+      </c>
+      <c r="Y67">
+        <v>6.1109999999999998</v>
+      </c>
+      <c r="Z67">
+        <v>-418.56599999999997</v>
+      </c>
+      <c r="AA67">
+        <v>574.71299999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42911</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>526.42399999999998</v>
+      </c>
+      <c r="D68">
+        <v>2344.9070000000002</v>
+      </c>
+      <c r="E68">
+        <v>1673.3979999999999</v>
+      </c>
+      <c r="F68">
+        <v>1068.961</v>
+      </c>
+      <c r="G68">
+        <v>9142.4979999999996</v>
+      </c>
+      <c r="H68">
+        <v>12122.764999999999</v>
+      </c>
+      <c r="I68">
+        <v>464.64299999999997</v>
+      </c>
+      <c r="J68">
+        <v>1786.1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2950.1149999999998</v>
+      </c>
+      <c r="O68">
+        <v>5305.3140000000003</v>
+      </c>
+      <c r="P68">
+        <v>2700.6819999999998</v>
+      </c>
+      <c r="Q68">
+        <v>248.964</v>
+      </c>
+      <c r="R68">
+        <v>42911</v>
+      </c>
+      <c r="S68">
+        <v>9400</v>
+      </c>
+      <c r="T68">
+        <v>6817.451</v>
+      </c>
+      <c r="U68">
+        <v>2377.5340000000001</v>
+      </c>
+      <c r="V68">
+        <v>729.27200000000005</v>
+      </c>
+      <c r="W68">
+        <v>-73.709000000000003</v>
+      </c>
+      <c r="X68">
+        <v>-539.80899999999997</v>
+      </c>
+      <c r="Y68">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="Z68">
+        <v>93.858000000000004</v>
+      </c>
+      <c r="AA68">
+        <v>526.42399999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43002</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>590.69000000000005</v>
+      </c>
+      <c r="D69">
+        <v>2478.14</v>
+      </c>
+      <c r="E69">
+        <v>1530.7619999999999</v>
+      </c>
+      <c r="F69">
+        <v>1149.3430000000001</v>
+      </c>
+      <c r="G69">
+        <v>9228.7800000000007</v>
+      </c>
+      <c r="H69">
+        <v>12398.626</v>
+      </c>
+      <c r="I69">
+        <v>471.80500000000001</v>
+      </c>
+      <c r="J69">
+        <v>1789.86</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-301.72699999999998</v>
+      </c>
+      <c r="N69">
+        <v>2788.6309999999999</v>
+      </c>
+      <c r="O69">
+        <v>5127.4480000000003</v>
+      </c>
+      <c r="P69">
+        <v>2446.4609999999998</v>
+      </c>
+      <c r="Q69">
+        <v>28.768000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43002</v>
+      </c>
+      <c r="S69">
+        <v>9800</v>
+      </c>
+      <c r="T69">
+        <v>7271.1779999999999</v>
+      </c>
+      <c r="U69">
+        <v>2406.462</v>
+      </c>
+      <c r="V69">
+        <v>858.30600000000004</v>
+      </c>
+      <c r="W69">
+        <v>-72.738</v>
+      </c>
+      <c r="X69">
+        <v>-528.80399999999997</v>
+      </c>
+      <c r="Y69">
+        <v>16.693999999999999</v>
+      </c>
+      <c r="Z69">
+        <v>-117.774</v>
+      </c>
+      <c r="AA69">
+        <v>590.69000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43093</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-9.9550000000000001</v>
+      </c>
+      <c r="D70">
+        <v>2580.8150000000001</v>
+      </c>
+      <c r="E70">
+        <v>2279.0439999999999</v>
+      </c>
+      <c r="F70">
+        <v>1205.567</v>
+      </c>
+      <c r="G70">
+        <v>9666.1219999999994</v>
+      </c>
+      <c r="H70">
+        <v>12912.264999999999</v>
+      </c>
+      <c r="I70">
+        <v>421.78800000000001</v>
+      </c>
+      <c r="J70">
+        <v>1785.498</v>
+      </c>
+      <c r="K70">
+        <v>800</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3911.6950000000002</v>
+      </c>
+      <c r="O70">
+        <v>6769.134</v>
+      </c>
+      <c r="P70">
+        <v>3206.1379999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-661.35</v>
+      </c>
+      <c r="R70">
+        <v>43093</v>
+      </c>
+      <c r="S70">
+        <v>10200</v>
+      </c>
+      <c r="T70">
+        <v>6143.1310000000003</v>
+      </c>
+      <c r="U70">
+        <v>1745.173</v>
+      </c>
+      <c r="V70">
+        <v>28.704000000000001</v>
+      </c>
+      <c r="W70">
+        <v>-73.126999999999995</v>
+      </c>
+      <c r="X70">
+        <v>-396.02199999999999</v>
+      </c>
+      <c r="Y70">
+        <v>18.98</v>
+      </c>
+      <c r="Z70">
+        <v>-205.70099999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-9.9550000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>778.8</v>
+      </c>
+      <c r="D71">
+        <v>2892.1149999999998</v>
+      </c>
+      <c r="E71">
+        <v>2082.6320000000001</v>
+      </c>
+      <c r="F71">
+        <v>1330.7139999999999</v>
+      </c>
+      <c r="G71">
+        <v>10425.797</v>
+      </c>
+      <c r="H71">
+        <v>13663.499</v>
+      </c>
+      <c r="I71">
+        <v>630.91200000000003</v>
+      </c>
+      <c r="J71">
+        <v>1787.799</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3948.42</v>
+      </c>
+      <c r="O71">
+        <v>6860.4440000000004</v>
+      </c>
+      <c r="P71">
+        <v>3230.922</v>
+      </c>
+      <c r="Q71">
+        <v>2954.4250000000002</v>
+      </c>
+      <c r="R71">
+        <v>43184</v>
+      </c>
+      <c r="S71">
+        <v>10600</v>
+      </c>
+      <c r="T71">
+        <v>6803.0550000000003</v>
+      </c>
+      <c r="U71">
+        <v>4698.9949999999999</v>
+      </c>
+      <c r="V71">
+        <v>1050.3789999999999</v>
+      </c>
+      <c r="W71">
+        <v>-79.739000000000004</v>
+      </c>
+      <c r="X71">
+        <v>-186.46199999999999</v>
+      </c>
+      <c r="Y71">
+        <v>19.858000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>2134.886</v>
+      </c>
+      <c r="AA71">
+        <v>778.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1021.146</v>
+      </c>
+      <c r="D72">
+        <v>3125.9279999999999</v>
+      </c>
+      <c r="E72">
+        <v>2176.9360000000001</v>
+      </c>
+      <c r="F72">
+        <v>1479.4079999999999</v>
+      </c>
+      <c r="G72">
+        <v>9149.9110000000001</v>
+      </c>
+      <c r="H72">
+        <v>12479.477999999999</v>
+      </c>
+      <c r="I72">
+        <v>510.983</v>
+      </c>
+      <c r="J72">
+        <v>1783.9359999999999</v>
+      </c>
+      <c r="K72">
+        <v>360</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3150.308</v>
+      </c>
+      <c r="O72">
+        <v>5977.6270000000004</v>
+      </c>
+      <c r="P72">
+        <v>2447.7800000000002</v>
+      </c>
+      <c r="Q72">
+        <v>-187.024</v>
+      </c>
+      <c r="R72">
+        <v>43275</v>
+      </c>
+      <c r="S72">
+        <v>10900</v>
+      </c>
+      <c r="T72">
+        <v>6501.8509999999997</v>
+      </c>
+      <c r="U72">
+        <v>4512.2569999999996</v>
+      </c>
+      <c r="V72">
+        <v>718.35799999999995</v>
+      </c>
+      <c r="W72">
+        <v>-82.004999999999995</v>
+      </c>
+      <c r="X72">
+        <v>-2160.7689999999998</v>
+      </c>
+      <c r="Y72">
+        <v>46.345999999999997</v>
+      </c>
+      <c r="Z72">
+        <v>1341.4749999999999</v>
+      </c>
+      <c r="AA72">
+        <v>1021.146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43366</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>533.36</v>
+      </c>
+      <c r="D73">
+        <v>2330.6909999999998</v>
+      </c>
+      <c r="E73">
+        <v>1846.845</v>
+      </c>
+      <c r="F73">
+        <v>1058.1980000000001</v>
+      </c>
+      <c r="G73">
+        <v>7515.8729999999996</v>
+      </c>
+      <c r="H73">
+        <v>10957.576999999999</v>
+      </c>
+      <c r="I73">
+        <v>384.40300000000002</v>
+      </c>
+      <c r="J73">
+        <v>1787.6849999999999</v>
+      </c>
+      <c r="K73">
+        <v>360</v>
+      </c>
+      <c r="L73">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="M73">
+        <v>-79.831000000000003</v>
+      </c>
+      <c r="N73">
+        <v>2824.9650000000001</v>
+      </c>
+      <c r="O73">
+        <v>5634.7520000000004</v>
+      </c>
+      <c r="P73">
+        <v>2384.5859999999998</v>
+      </c>
+      <c r="Q73">
+        <v>-1944.549</v>
+      </c>
+      <c r="R73">
+        <v>43366</v>
+      </c>
+      <c r="S73">
+        <v>11000</v>
+      </c>
+      <c r="T73">
+        <v>5322.8249999999998</v>
+      </c>
+      <c r="U73">
+        <v>2568.085</v>
+      </c>
+      <c r="V73">
+        <v>720.28599999999994</v>
+      </c>
+      <c r="W73">
+        <v>-174.37200000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1990.193</v>
+      </c>
+      <c r="Y73">
+        <v>46.531999999999996</v>
+      </c>
+      <c r="Z73">
+        <v>-612.58299999999997</v>
+      </c>
+      <c r="AA73">
+        <v>533.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43457</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>568.85500000000002</v>
+      </c>
+      <c r="D74">
+        <v>2522.6729999999998</v>
+      </c>
+      <c r="E74">
+        <v>1868.8420000000001</v>
+      </c>
+      <c r="F74">
+        <v>1145.0329999999999</v>
+      </c>
+      <c r="G74">
+        <v>7355.8450000000003</v>
+      </c>
+      <c r="H74">
+        <v>10768.458000000001</v>
+      </c>
+      <c r="I74">
+        <v>343.94200000000001</v>
+      </c>
+      <c r="J74">
+        <v>1784.4010000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2166.837</v>
+      </c>
+      <c r="O74">
+        <v>4984.0950000000003</v>
+      </c>
+      <c r="P74">
+        <v>2017.337</v>
+      </c>
+      <c r="Q74">
+        <v>791.07600000000002</v>
+      </c>
+      <c r="R74">
+        <v>43457</v>
+      </c>
+      <c r="S74">
+        <v>10950</v>
+      </c>
+      <c r="T74">
+        <v>5784.3630000000003</v>
+      </c>
+      <c r="U74">
+        <v>3359.7930000000001</v>
+      </c>
+      <c r="V74">
+        <v>642.41899999999998</v>
+      </c>
+      <c r="W74">
+        <v>-167.90700000000001</v>
+      </c>
+      <c r="X74">
+        <v>-515.553</v>
+      </c>
+      <c r="Y74">
+        <v>45.834000000000003</v>
+      </c>
+      <c r="Z74">
+        <v>773.22299999999996</v>
+      </c>
+      <c r="AA74">
+        <v>568.85500000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>547.39</v>
+      </c>
+      <c r="D75">
+        <v>2439.0479999999998</v>
+      </c>
+      <c r="E75">
+        <v>1522.2729999999999</v>
+      </c>
+      <c r="F75">
+        <v>1074.337</v>
+      </c>
+      <c r="G75">
+        <v>9442.241</v>
+      </c>
+      <c r="H75">
+        <v>12895.262000000001</v>
+      </c>
+      <c r="I75">
+        <v>416.18700000000001</v>
+      </c>
+      <c r="J75">
+        <v>3766.6669999999999</v>
+      </c>
+      <c r="K75">
+        <v>300</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2805.6280000000002</v>
+      </c>
+      <c r="O75">
+        <v>7604.0659999999998</v>
+      </c>
+      <c r="P75">
+        <v>4776.9870000000001</v>
+      </c>
+      <c r="Q75">
+        <v>1572.3</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>10800</v>
+      </c>
+      <c r="T75">
+        <v>5291.1959999999999</v>
+      </c>
+      <c r="U75">
+        <v>4931.6109999999999</v>
+      </c>
+      <c r="V75">
+        <v>932.82100000000003</v>
+      </c>
+      <c r="W75">
+        <v>-171.196</v>
+      </c>
+      <c r="X75">
+        <v>1643.5219999999999</v>
+      </c>
+      <c r="Y75">
+        <v>46.213000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-931.38</v>
+      </c>
+      <c r="AA75">
+        <v>547.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>541.82500000000005</v>
+      </c>
+      <c r="D76">
+        <v>2361.1469999999999</v>
+      </c>
+      <c r="E76">
+        <v>1455.5219999999999</v>
+      </c>
+      <c r="F76">
+        <v>1080.8910000000001</v>
+      </c>
+      <c r="G76">
+        <v>8560.4089999999997</v>
+      </c>
+      <c r="H76">
+        <v>12001.333000000001</v>
+      </c>
+      <c r="I76">
+        <v>376.56099999999998</v>
+      </c>
+      <c r="J76">
+        <v>3767.703</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2371.65</v>
+      </c>
+      <c r="O76">
+        <v>7327.4679999999998</v>
+      </c>
+      <c r="P76">
+        <v>4495.0479999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-1273.989</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>10700</v>
+      </c>
+      <c r="T76">
+        <v>4673.8649999999998</v>
+      </c>
+      <c r="U76">
+        <v>3658.2190000000001</v>
+      </c>
+      <c r="V76">
+        <v>880.48699999999997</v>
+      </c>
+      <c r="W76">
+        <v>-164.87299999999999</v>
+      </c>
+      <c r="X76">
+        <v>-1527.856</v>
+      </c>
+      <c r="Y76">
+        <v>55.064999999999998</v>
+      </c>
+      <c r="Z76">
+        <v>-555.46799999999996</v>
+      </c>
+      <c r="AA76">
+        <v>541.82500000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>465.78899999999999</v>
+      </c>
+      <c r="D77">
+        <v>2165.7460000000001</v>
+      </c>
+      <c r="E77">
+        <v>1635.643</v>
+      </c>
+      <c r="F77">
+        <v>981.71</v>
+      </c>
+      <c r="G77">
+        <v>8834.6149999999998</v>
+      </c>
+      <c r="H77">
+        <v>12343.502</v>
+      </c>
+      <c r="I77">
+        <v>415.80799999999999</v>
+      </c>
+      <c r="J77">
+        <v>3775.9560000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-28.965</v>
+      </c>
+      <c r="N77">
+        <v>2457.6819999999998</v>
+      </c>
+      <c r="O77">
+        <v>7407.1090000000004</v>
+      </c>
+      <c r="P77">
+        <v>4541.902</v>
+      </c>
+      <c r="Q77">
+        <v>948.44</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>10700</v>
+      </c>
+      <c r="T77">
+        <v>4936.393</v>
+      </c>
+      <c r="U77">
+        <v>4607.1819999999998</v>
+      </c>
+      <c r="V77">
+        <v>464.04700000000003</v>
+      </c>
+      <c r="W77">
+        <v>-158.86799999999999</v>
+      </c>
+      <c r="X77">
+        <v>-262.096</v>
+      </c>
+      <c r="Y77">
+        <v>82.680999999999997</v>
+      </c>
+      <c r="Z77">
+        <v>790.47799999999995</v>
+      </c>
+      <c r="AA77">
+        <v>465.78899999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>514.51</v>
+      </c>
+      <c r="D78">
+        <v>2583.5010000000002</v>
+      </c>
+      <c r="E78">
+        <v>2030.49</v>
+      </c>
+      <c r="F78">
+        <v>1179.644</v>
+      </c>
+      <c r="G78">
+        <v>8454.9650000000001</v>
+      </c>
+      <c r="H78">
+        <v>11914.121999999999</v>
+      </c>
+      <c r="I78">
+        <v>452.779</v>
+      </c>
+      <c r="J78">
+        <v>3774.3490000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2565.5010000000002</v>
+      </c>
+      <c r="O78">
+        <v>7534.6930000000002</v>
+      </c>
+      <c r="P78">
+        <v>4528.027</v>
+      </c>
+      <c r="Q78">
+        <v>-1572.0419999999999</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>10700</v>
+      </c>
+      <c r="T78">
+        <v>4379.4290000000001</v>
+      </c>
+      <c r="U78">
+        <v>3035.8870000000002</v>
+      </c>
+      <c r="V78">
+        <v>307.928</v>
+      </c>
+      <c r="W78">
+        <v>-166.721</v>
+      </c>
+      <c r="X78">
+        <v>-1150.6959999999999</v>
+      </c>
+      <c r="Y78">
+        <v>82.16</v>
+      </c>
+      <c r="Z78">
+        <v>-662.28700000000003</v>
+      </c>
+      <c r="AA78">
+        <v>514.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>574.78099999999995</v>
+      </c>
+      <c r="D79">
+        <v>2503.625</v>
+      </c>
+      <c r="E79">
+        <v>2191.0700000000002</v>
+      </c>
+      <c r="F79">
+        <v>1167.0070000000001</v>
+      </c>
+      <c r="G79">
+        <v>9408.7849999999999</v>
+      </c>
+      <c r="H79">
+        <v>12938.635</v>
+      </c>
+      <c r="I79">
+        <v>498.86</v>
+      </c>
+      <c r="J79">
+        <v>5032.7780000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2105.6610000000001</v>
+      </c>
+      <c r="O79">
+        <v>8401.0280000000002</v>
+      </c>
+      <c r="P79">
+        <v>5287.7139999999999</v>
+      </c>
+      <c r="Q79">
+        <v>925.947</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>11000</v>
+      </c>
+      <c r="T79">
+        <v>4537.607</v>
+      </c>
+      <c r="U79">
+        <v>3961.5859999999998</v>
+      </c>
+      <c r="V79">
+        <v>541.428</v>
+      </c>
+      <c r="W79">
+        <v>-163.51</v>
+      </c>
+      <c r="X79">
+        <v>225.46199999999999</v>
+      </c>
+      <c r="Y79">
+        <v>133.81200000000001</v>
+      </c>
+      <c r="Z79">
+        <v>211.15899999999999</v>
+      </c>
+      <c r="AA79">
+        <v>574.78099999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>696.673</v>
+      </c>
+      <c r="D80">
+        <v>2791.864</v>
+      </c>
+      <c r="E80">
+        <v>2097.0990000000002</v>
+      </c>
+      <c r="F80">
+        <v>1280.3320000000001</v>
+      </c>
+      <c r="G80">
+        <v>10853.535</v>
+      </c>
+      <c r="H80">
+        <v>14559.047</v>
+      </c>
+      <c r="I80">
+        <v>592.38699999999994</v>
+      </c>
+      <c r="J80">
+        <v>4959.3710000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3162.442</v>
+      </c>
+      <c r="O80">
+        <v>9386.5529999999999</v>
+      </c>
+      <c r="P80">
+        <v>5984.0940000000001</v>
+      </c>
+      <c r="Q80">
+        <v>953.34199999999998</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>11300</v>
+      </c>
+      <c r="T80">
+        <v>5172.4939999999997</v>
+      </c>
+      <c r="U80">
+        <v>4915.1719999999996</v>
+      </c>
+      <c r="V80">
+        <v>813.048</v>
+      </c>
+      <c r="W80">
+        <v>-167.739</v>
+      </c>
+      <c r="X80">
+        <v>563.4</v>
+      </c>
+      <c r="Y80">
+        <v>135.36600000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-354.35</v>
+      </c>
+      <c r="AA80">
+        <v>696.673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>823.45100000000002</v>
+      </c>
+      <c r="D81">
+        <v>3177.08</v>
+      </c>
+      <c r="E81">
+        <v>2317.922</v>
+      </c>
+      <c r="F81">
+        <v>1506.1790000000001</v>
+      </c>
+      <c r="G81">
+        <v>11274.883</v>
+      </c>
+      <c r="H81">
+        <v>15057.008</v>
+      </c>
+      <c r="I81">
+        <v>662.67399999999998</v>
+      </c>
+      <c r="J81">
+        <v>4959.7330000000002</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-19.172999999999998</v>
+      </c>
+      <c r="N81">
+        <v>3406.8679999999999</v>
+      </c>
+      <c r="O81">
+        <v>9637.8230000000003</v>
+      </c>
+      <c r="P81">
+        <v>5827.6329999999998</v>
+      </c>
+      <c r="Q81">
+        <v>-786.55799999999999</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>11700</v>
+      </c>
+      <c r="T81">
+        <v>5419.1850000000004</v>
+      </c>
+      <c r="U81">
+        <v>4129.067</v>
+      </c>
+      <c r="V81">
+        <v>642.51099999999997</v>
+      </c>
+      <c r="W81">
+        <v>-167.12899999999999</v>
+      </c>
+      <c r="X81">
+        <v>-631.48500000000001</v>
+      </c>
+      <c r="Y81">
+        <v>33.762</v>
+      </c>
+      <c r="Z81">
+        <v>-737.07399999999996</v>
+      </c>
+      <c r="AA81">
+        <v>823.45100000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>869.22900000000004</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3456.2370000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2900.3620000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1603.7950000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>11467.951999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>15370.374</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>722.49</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4960.1019999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3591.0529999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>9867.3410000000003</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5825.3429999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-442.553</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44192</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>12200</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5503.0330000000004</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3687.165</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>344.637</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-187.92699999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-865.31700000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>32.393999999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>168.102</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>869.22900000000004</v>
       </c>
     </row>
